--- a/metrics/metricas_analysis.xlsx
+++ b/metrics/metricas_analysis.xlsx
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1491</v>
+        <v>2163</v>
       </c>
       <c r="C2" t="n">
-        <v>577</v>
+        <v>982</v>
       </c>
       <c r="D2" t="n">
-        <v>264</v>
+        <v>309</v>
       </c>
       <c r="E2" t="n">
-        <v>650</v>
+        <v>872</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -515,19 +515,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8315</v>
+        <v>11586</v>
       </c>
       <c r="C3" t="n">
-        <v>445</v>
+        <v>610</v>
       </c>
       <c r="D3" t="n">
-        <v>1581</v>
+        <v>2381</v>
       </c>
       <c r="E3" t="n">
-        <v>2040</v>
+        <v>3001</v>
       </c>
       <c r="F3" t="n">
-        <v>4249</v>
+        <v>5594</v>
       </c>
       <c r="G3" t="n">
         <v>23.03</v>
@@ -549,16 +549,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1052</v>
+        <v>1448</v>
       </c>
       <c r="C4" t="n">
-        <v>413</v>
+        <v>605</v>
       </c>
       <c r="D4" t="n">
-        <v>271</v>
+        <v>392</v>
       </c>
       <c r="E4" t="n">
-        <v>368</v>
+        <v>451</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -583,28 +583,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12426</v>
+        <v>18543</v>
       </c>
       <c r="C5" t="n">
-        <v>144</v>
+        <v>231</v>
       </c>
       <c r="D5" t="n">
-        <v>649</v>
+        <v>1086</v>
       </c>
       <c r="E5" t="n">
-        <v>389</v>
+        <v>476</v>
       </c>
       <c r="F5" t="n">
-        <v>11244</v>
+        <v>16750</v>
       </c>
       <c r="G5" t="n">
-        <v>17.56</v>
+        <v>17.64</v>
       </c>
       <c r="H5" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -617,19 +617,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6817</v>
+        <v>9872</v>
       </c>
       <c r="C6" t="n">
-        <v>838</v>
+        <v>1044</v>
       </c>
       <c r="D6" t="n">
-        <v>220</v>
+        <v>262</v>
       </c>
       <c r="E6" t="n">
-        <v>548</v>
+        <v>878</v>
       </c>
       <c r="F6" t="n">
-        <v>5211</v>
+        <v>7688</v>
       </c>
       <c r="G6" t="n">
         <v>6.99</v>
@@ -638,10 +638,10 @@
         <v>15.58</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
@@ -651,28 +651,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11664</v>
+        <v>17567</v>
       </c>
       <c r="C7" t="n">
-        <v>1278</v>
+        <v>1747</v>
       </c>
       <c r="D7" t="n">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="E7" t="n">
-        <v>1423</v>
+        <v>1931</v>
       </c>
       <c r="F7" t="n">
-        <v>8675</v>
+        <v>13562</v>
       </c>
       <c r="G7" t="n">
-        <v>21.56</v>
+        <v>23.75</v>
       </c>
       <c r="H7" t="n">
-        <v>2.5</v>
+        <v>2.72</v>
       </c>
       <c r="I7" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J7" t="n">
         <v>9</v>
@@ -685,19 +685,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14070</v>
+        <v>20325</v>
       </c>
       <c r="C8" t="n">
-        <v>935</v>
+        <v>1307</v>
       </c>
       <c r="D8" t="n">
-        <v>707</v>
+        <v>1086</v>
       </c>
       <c r="E8" t="n">
-        <v>2913</v>
+        <v>4313</v>
       </c>
       <c r="F8" t="n">
-        <v>9515</v>
+        <v>13619</v>
       </c>
       <c r="G8" t="n">
         <v>7.93</v>
@@ -719,19 +719,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9167</v>
+        <v>13828</v>
       </c>
       <c r="C9" t="n">
-        <v>2094</v>
+        <v>3078</v>
       </c>
       <c r="D9" t="n">
         <v>69</v>
       </c>
       <c r="E9" t="n">
-        <v>403</v>
+        <v>479</v>
       </c>
       <c r="F9" t="n">
-        <v>6601</v>
+        <v>10202</v>
       </c>
       <c r="G9" t="n">
         <v>9.57</v>
@@ -753,19 +753,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10694</v>
+        <v>15629</v>
       </c>
       <c r="C10" t="n">
-        <v>596</v>
+        <v>876</v>
       </c>
       <c r="D10" t="n">
-        <v>228</v>
+        <v>308</v>
       </c>
       <c r="E10" t="n">
-        <v>287</v>
+        <v>406</v>
       </c>
       <c r="F10" t="n">
-        <v>9583</v>
+        <v>14039</v>
       </c>
       <c r="G10" t="n">
         <v>2.94</v>
@@ -774,7 +774,7 @@
         <v>22.29</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -787,28 +787,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8928</v>
+        <v>13113</v>
       </c>
       <c r="C11" t="n">
-        <v>875</v>
+        <v>1219</v>
       </c>
       <c r="D11" t="n">
-        <v>422</v>
+        <v>601</v>
       </c>
       <c r="E11" t="n">
-        <v>1568</v>
+        <v>2231</v>
       </c>
       <c r="F11" t="n">
-        <v>6063</v>
+        <v>9060</v>
       </c>
       <c r="G11" t="n">
-        <v>11.38</v>
+        <v>12.11</v>
       </c>
       <c r="H11" t="n">
-        <v>8.130000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J11" t="n">
         <v>100</v>
@@ -821,31 +821,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9979</v>
+        <v>14681</v>
       </c>
       <c r="C12" t="n">
-        <v>526</v>
+        <v>717</v>
       </c>
       <c r="D12" t="n">
-        <v>365</v>
+        <v>552</v>
       </c>
       <c r="E12" t="n">
-        <v>408</v>
+        <v>586</v>
       </c>
       <c r="F12" t="n">
-        <v>8679</v>
+        <v>12825</v>
       </c>
       <c r="G12" t="n">
-        <v>9.16</v>
+        <v>9.19</v>
       </c>
       <c r="H12" t="n">
-        <v>13.39</v>
+        <v>13.36</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
@@ -855,19 +855,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5329</v>
+        <v>7995</v>
       </c>
       <c r="C13" t="n">
-        <v>1335</v>
+        <v>2030</v>
       </c>
       <c r="D13" t="n">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="E13" t="n">
-        <v>526</v>
+        <v>675</v>
       </c>
       <c r="F13" t="n">
-        <v>3300</v>
+        <v>5101</v>
       </c>
       <c r="G13" t="n">
         <v>6.94</v>
@@ -889,19 +889,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8315</v>
+        <v>11586</v>
       </c>
       <c r="C14" t="n">
-        <v>445</v>
+        <v>610</v>
       </c>
       <c r="D14" t="n">
-        <v>1581</v>
+        <v>2381</v>
       </c>
       <c r="E14" t="n">
-        <v>2040</v>
+        <v>3001</v>
       </c>
       <c r="F14" t="n">
-        <v>4249</v>
+        <v>5594</v>
       </c>
       <c r="G14" t="n">
         <v>23.03</v>
@@ -994,25 +994,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2318</v>
+        <v>2797</v>
       </c>
       <c r="C2" t="n">
-        <v>1092</v>
+        <v>1439</v>
       </c>
       <c r="D2" t="n">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="E2" t="n">
-        <v>1068</v>
+        <v>1158</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.58</v>
+        <v>4.53</v>
       </c>
       <c r="H2" t="n">
-        <v>12.06</v>
+        <v>12.33</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1028,25 +1028,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11096</v>
+        <v>14206</v>
       </c>
       <c r="C3" t="n">
-        <v>1423</v>
+        <v>1034</v>
       </c>
       <c r="D3" t="n">
-        <v>240</v>
+        <v>314</v>
       </c>
       <c r="E3" t="n">
-        <v>986</v>
+        <v>959</v>
       </c>
       <c r="F3" t="n">
-        <v>8447</v>
+        <v>11899</v>
       </c>
       <c r="G3" t="n">
-        <v>11.93</v>
+        <v>9.35</v>
       </c>
       <c r="H3" t="n">
-        <v>14.94</v>
+        <v>22.59</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -1062,25 +1062,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7337</v>
+        <v>11340</v>
       </c>
       <c r="C4" t="n">
-        <v>419</v>
+        <v>541</v>
       </c>
       <c r="D4" t="n">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="E4" t="n">
-        <v>138</v>
+        <v>245</v>
       </c>
       <c r="F4" t="n">
-        <v>6538</v>
+        <v>10288</v>
       </c>
       <c r="G4" t="n">
-        <v>9.1</v>
+        <v>14.14</v>
       </c>
       <c r="H4" t="n">
-        <v>7.25</v>
+        <v>6.89</v>
       </c>
       <c r="I4" t="n">
         <v>3</v>
@@ -1096,28 +1096,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1001</v>
+        <v>20676</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2400</v>
       </c>
       <c r="D5" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E5" t="n">
-        <v>941</v>
+        <v>1286</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>16925</v>
       </c>
       <c r="G5" t="n">
-        <v>14.9</v>
+        <v>15.23</v>
       </c>
       <c r="H5" t="n">
-        <v>4.91</v>
+        <v>4.79</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1130,31 +1130,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6587</v>
+        <v>9717</v>
       </c>
       <c r="C6" t="n">
-        <v>1077</v>
+        <v>2140</v>
       </c>
       <c r="D6" t="n">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="E6" t="n">
-        <v>765</v>
+        <v>980</v>
       </c>
       <c r="F6" t="n">
-        <v>4657</v>
+        <v>6435</v>
       </c>
       <c r="G6" t="n">
-        <v>8.539999999999999</v>
+        <v>7.97</v>
       </c>
       <c r="H6" t="n">
-        <v>7.75</v>
+        <v>6.96</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
@@ -1164,31 +1164,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16463</v>
+        <v>23092</v>
       </c>
       <c r="C7" t="n">
-        <v>564</v>
+        <v>2036</v>
       </c>
       <c r="D7" t="n">
-        <v>516</v>
+        <v>716</v>
       </c>
       <c r="E7" t="n">
-        <v>1473</v>
+        <v>2898</v>
       </c>
       <c r="F7" t="n">
-        <v>13910</v>
+        <v>17442</v>
       </c>
       <c r="G7" t="n">
-        <v>35.96</v>
+        <v>26.03</v>
       </c>
       <c r="H7" t="n">
-        <v>6.6</v>
+        <v>6.33</v>
       </c>
       <c r="I7" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J7" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -1198,31 +1198,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9071</v>
+        <v>12784</v>
       </c>
       <c r="C8" t="n">
-        <v>724</v>
+        <v>921</v>
       </c>
       <c r="D8" t="n">
-        <v>388</v>
+        <v>689</v>
       </c>
       <c r="E8" t="n">
-        <v>1775</v>
+        <v>2163</v>
       </c>
       <c r="F8" t="n">
-        <v>6184</v>
+        <v>9011</v>
       </c>
       <c r="G8" t="n">
-        <v>13.47</v>
+        <v>11.89</v>
       </c>
       <c r="H8" t="n">
-        <v>5.46</v>
+        <v>4.5</v>
       </c>
       <c r="I8" t="n">
         <v>13</v>
       </c>
       <c r="J8" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
@@ -1232,25 +1232,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8696</v>
+        <v>10570</v>
       </c>
       <c r="C9" t="n">
-        <v>3507</v>
+        <v>3992</v>
       </c>
       <c r="D9" t="n">
-        <v>184</v>
+        <v>134</v>
       </c>
       <c r="E9" t="n">
-        <v>867</v>
+        <v>996</v>
       </c>
       <c r="F9" t="n">
-        <v>4138</v>
+        <v>5448</v>
       </c>
       <c r="G9" t="n">
-        <v>12.52</v>
+        <v>10.62</v>
       </c>
       <c r="H9" t="n">
-        <v>7.76</v>
+        <v>7.72</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1266,28 +1266,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>442</v>
+        <v>12697</v>
       </c>
       <c r="C10" t="n">
-        <v>220</v>
+        <v>365</v>
       </c>
       <c r="D10" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="E10" t="n">
-        <v>181</v>
+        <v>274</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>11991</v>
       </c>
       <c r="G10" t="n">
-        <v>2.35</v>
+        <v>2.17</v>
       </c>
       <c r="H10" t="n">
-        <v>16.63</v>
+        <v>17.03</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1300,31 +1300,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10957</v>
+        <v>15738</v>
       </c>
       <c r="C11" t="n">
-        <v>569</v>
+        <v>1166</v>
       </c>
       <c r="D11" t="n">
-        <v>382</v>
+        <v>557</v>
       </c>
       <c r="E11" t="n">
-        <v>1128</v>
+        <v>1768</v>
       </c>
       <c r="F11" t="n">
-        <v>8877</v>
+        <v>12247</v>
       </c>
       <c r="G11" t="n">
-        <v>19.51</v>
+        <v>17.35</v>
       </c>
       <c r="H11" t="n">
-        <v>6.44</v>
+        <v>5.91</v>
       </c>
       <c r="I11" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J11" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12">
@@ -1334,31 +1334,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2676</v>
+        <v>14363</v>
       </c>
       <c r="C12" t="n">
-        <v>434</v>
+        <v>1635</v>
       </c>
       <c r="D12" t="n">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="E12" t="n">
-        <v>629</v>
+        <v>846</v>
       </c>
       <c r="F12" t="n">
-        <v>1552</v>
+        <v>11783</v>
       </c>
       <c r="G12" t="n">
-        <v>8.6</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>9.76</v>
+        <v>9.59</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
@@ -1368,25 +1368,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5507</v>
+        <v>6683</v>
       </c>
       <c r="C13" t="n">
-        <v>2299</v>
+        <v>2715</v>
       </c>
       <c r="D13" t="n">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E13" t="n">
-        <v>967</v>
+        <v>1077</v>
       </c>
       <c r="F13" t="n">
-        <v>2069</v>
+        <v>2724</v>
       </c>
       <c r="G13" t="n">
-        <v>8.550000000000001</v>
+        <v>7.57</v>
       </c>
       <c r="H13" t="n">
-        <v>9.91</v>
+        <v>10.03</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1402,25 +1402,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11096</v>
+        <v>14206</v>
       </c>
       <c r="C14" t="n">
-        <v>1423</v>
+        <v>1034</v>
       </c>
       <c r="D14" t="n">
-        <v>240</v>
+        <v>314</v>
       </c>
       <c r="E14" t="n">
-        <v>986</v>
+        <v>959</v>
       </c>
       <c r="F14" t="n">
-        <v>8447</v>
+        <v>11899</v>
       </c>
       <c r="G14" t="n">
-        <v>11.93</v>
+        <v>9.35</v>
       </c>
       <c r="H14" t="n">
-        <v>14.94</v>
+        <v>22.59</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>

--- a/metrics/metricas_analysis.xlsx
+++ b/metrics/metricas_analysis.xlsx
@@ -641,7 +641,7 @@
         <v>9</v>
       </c>
       <c r="J6" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -709,7 +709,7 @@
         <v>15</v>
       </c>
       <c r="J8" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -811,7 +811,7 @@
         <v>51</v>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -845,7 +845,7 @@
         <v>24</v>
       </c>
       <c r="J12" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -994,25 +994,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2797</v>
+        <v>3283</v>
       </c>
       <c r="C2" t="n">
-        <v>1439</v>
+        <v>2022</v>
       </c>
       <c r="D2" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="E2" t="n">
-        <v>1158</v>
+        <v>1031</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.53</v>
+        <v>3.14</v>
       </c>
       <c r="H2" t="n">
-        <v>12.33</v>
+        <v>15.62</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1062,25 +1062,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11340</v>
+        <v>11305</v>
       </c>
       <c r="C4" t="n">
-        <v>541</v>
+        <v>501</v>
       </c>
       <c r="D4" t="n">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="E4" t="n">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="F4" t="n">
         <v>10288</v>
       </c>
       <c r="G4" t="n">
-        <v>14.14</v>
+        <v>19.98</v>
       </c>
       <c r="H4" t="n">
-        <v>6.89</v>
+        <v>6.31</v>
       </c>
       <c r="I4" t="n">
         <v>3</v>
@@ -1096,28 +1096,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20676</v>
+        <v>19609</v>
       </c>
       <c r="C5" t="n">
-        <v>2400</v>
+        <v>1714</v>
       </c>
       <c r="D5" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
-        <v>1286</v>
+        <v>920</v>
       </c>
       <c r="F5" t="n">
         <v>16925</v>
       </c>
       <c r="G5" t="n">
-        <v>15.23</v>
+        <v>15.6</v>
       </c>
       <c r="H5" t="n">
-        <v>4.79</v>
+        <v>4.55</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1130,31 +1130,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9717</v>
+        <v>9568</v>
       </c>
       <c r="C6" t="n">
-        <v>2140</v>
+        <v>2001</v>
       </c>
       <c r="D6" t="n">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="E6" t="n">
-        <v>980</v>
+        <v>955</v>
       </c>
       <c r="F6" t="n">
         <v>6435</v>
       </c>
       <c r="G6" t="n">
-        <v>7.97</v>
+        <v>7.92</v>
       </c>
       <c r="H6" t="n">
-        <v>6.96</v>
+        <v>6.81</v>
       </c>
       <c r="I6" t="n">
         <v>9</v>
       </c>
       <c r="J6" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1164,25 +1164,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23092</v>
+        <v>23819</v>
       </c>
       <c r="C7" t="n">
-        <v>2036</v>
+        <v>2163</v>
       </c>
       <c r="D7" t="n">
-        <v>716</v>
+        <v>773</v>
       </c>
       <c r="E7" t="n">
-        <v>2898</v>
+        <v>3441</v>
       </c>
       <c r="F7" t="n">
         <v>17442</v>
       </c>
       <c r="G7" t="n">
-        <v>26.03</v>
+        <v>24.66</v>
       </c>
       <c r="H7" t="n">
-        <v>6.33</v>
+        <v>5.65</v>
       </c>
       <c r="I7" t="n">
         <v>35</v>
@@ -1198,31 +1198,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12784</v>
+        <v>12720</v>
       </c>
       <c r="C8" t="n">
-        <v>921</v>
+        <v>874</v>
       </c>
       <c r="D8" t="n">
-        <v>689</v>
+        <v>650</v>
       </c>
       <c r="E8" t="n">
-        <v>2163</v>
+        <v>2185</v>
       </c>
       <c r="F8" t="n">
         <v>9011</v>
       </c>
       <c r="G8" t="n">
-        <v>11.89</v>
+        <v>11.86</v>
       </c>
       <c r="H8" t="n">
-        <v>4.5</v>
+        <v>4.57</v>
       </c>
       <c r="I8" t="n">
         <v>13</v>
       </c>
       <c r="J8" t="n">
-        <v>96</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1232,13 +1232,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10570</v>
+        <v>10637</v>
       </c>
       <c r="C9" t="n">
         <v>3992</v>
       </c>
       <c r="D9" t="n">
-        <v>134</v>
+        <v>201</v>
       </c>
       <c r="E9" t="n">
         <v>996</v>
@@ -1266,28 +1266,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12697</v>
+        <v>14514</v>
       </c>
       <c r="C10" t="n">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="D10" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E10" t="n">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="F10" t="n">
-        <v>11991</v>
+        <v>13845</v>
       </c>
       <c r="G10" t="n">
-        <v>2.17</v>
+        <v>2.68</v>
       </c>
       <c r="H10" t="n">
-        <v>17.03</v>
+        <v>17.68</v>
       </c>
       <c r="I10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1300,31 +1300,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15738</v>
+        <v>15948</v>
       </c>
       <c r="C11" t="n">
-        <v>1166</v>
+        <v>1179</v>
       </c>
       <c r="D11" t="n">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="E11" t="n">
-        <v>1768</v>
+        <v>1954</v>
       </c>
       <c r="F11" t="n">
         <v>12247</v>
       </c>
       <c r="G11" t="n">
-        <v>17.35</v>
+        <v>18.83</v>
       </c>
       <c r="H11" t="n">
-        <v>5.91</v>
+        <v>5.51</v>
       </c>
       <c r="I11" t="n">
         <v>51</v>
       </c>
       <c r="J11" t="n">
-        <v>116</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
@@ -1334,31 +1334,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14363</v>
+        <v>14563</v>
       </c>
       <c r="C12" t="n">
-        <v>1635</v>
+        <v>1352</v>
       </c>
       <c r="D12" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E12" t="n">
-        <v>846</v>
+        <v>712</v>
       </c>
       <c r="F12" t="n">
-        <v>11783</v>
+        <v>12401</v>
       </c>
       <c r="G12" t="n">
-        <v>8.460000000000001</v>
+        <v>8.73</v>
       </c>
       <c r="H12" t="n">
-        <v>9.59</v>
+        <v>9.68</v>
       </c>
       <c r="I12" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J12" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1368,25 +1368,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6683</v>
+        <v>6960</v>
       </c>
       <c r="C13" t="n">
-        <v>2715</v>
+        <v>3007</v>
       </c>
       <c r="D13" t="n">
-        <v>167</v>
+        <v>215</v>
       </c>
       <c r="E13" t="n">
-        <v>1077</v>
+        <v>1013</v>
       </c>
       <c r="F13" t="n">
         <v>2724</v>
       </c>
       <c r="G13" t="n">
-        <v>7.57</v>
+        <v>6.88</v>
       </c>
       <c r="H13" t="n">
-        <v>10.03</v>
+        <v>11.67</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>

--- a/metrics/metricas_analysis.xlsx
+++ b/metrics/metricas_analysis.xlsx
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -641,7 +641,7 @@
         <v>9</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -666,10 +666,10 @@
         <v>13562</v>
       </c>
       <c r="G7" t="n">
-        <v>23.75</v>
+        <v>23.4</v>
       </c>
       <c r="H7" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="I7" t="n">
         <v>32</v>
@@ -777,7 +777,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -802,10 +802,10 @@
         <v>9060</v>
       </c>
       <c r="G11" t="n">
-        <v>12.11</v>
+        <v>12</v>
       </c>
       <c r="H11" t="n">
-        <v>8.199999999999999</v>
+        <v>8.18</v>
       </c>
       <c r="I11" t="n">
         <v>51</v>
@@ -845,7 +845,7 @@
         <v>24</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -994,25 +994,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3283</v>
+        <v>3211</v>
       </c>
       <c r="C2" t="n">
-        <v>2022</v>
+        <v>1957</v>
       </c>
       <c r="D2" t="n">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E2" t="n">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.14</v>
+        <v>3.71</v>
       </c>
       <c r="H2" t="n">
-        <v>15.62</v>
+        <v>15.39</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1062,25 +1062,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11305</v>
+        <v>14085</v>
       </c>
       <c r="C4" t="n">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="D4" t="n">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E4" t="n">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F4" t="n">
-        <v>10288</v>
+        <v>13092</v>
       </c>
       <c r="G4" t="n">
-        <v>19.98</v>
+        <v>18.82</v>
       </c>
       <c r="H4" t="n">
-        <v>6.31</v>
+        <v>7.02</v>
       </c>
       <c r="I4" t="n">
         <v>3</v>
@@ -1117,7 +1117,7 @@
         <v>4.55</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1130,31 +1130,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9568</v>
+        <v>9385</v>
       </c>
       <c r="C6" t="n">
-        <v>2001</v>
+        <v>1879</v>
       </c>
       <c r="D6" t="n">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E6" t="n">
-        <v>955</v>
+        <v>904</v>
       </c>
       <c r="F6" t="n">
         <v>6435</v>
       </c>
       <c r="G6" t="n">
-        <v>7.92</v>
+        <v>7.28</v>
       </c>
       <c r="H6" t="n">
-        <v>6.81</v>
+        <v>6.26</v>
       </c>
       <c r="I6" t="n">
         <v>9</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -1164,13 +1164,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23819</v>
+        <v>24962</v>
       </c>
       <c r="C7" t="n">
-        <v>2163</v>
+        <v>3186</v>
       </c>
       <c r="D7" t="n">
-        <v>773</v>
+        <v>893</v>
       </c>
       <c r="E7" t="n">
         <v>3441</v>
@@ -1179,10 +1179,10 @@
         <v>17442</v>
       </c>
       <c r="G7" t="n">
-        <v>24.66</v>
+        <v>20.68</v>
       </c>
       <c r="H7" t="n">
-        <v>5.65</v>
+        <v>5.56</v>
       </c>
       <c r="I7" t="n">
         <v>35</v>
@@ -1198,25 +1198,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12720</v>
+        <v>12502</v>
       </c>
       <c r="C8" t="n">
-        <v>874</v>
+        <v>802</v>
       </c>
       <c r="D8" t="n">
-        <v>650</v>
+        <v>599</v>
       </c>
       <c r="E8" t="n">
-        <v>2185</v>
+        <v>2090</v>
       </c>
       <c r="F8" t="n">
         <v>9011</v>
       </c>
       <c r="G8" t="n">
-        <v>11.86</v>
+        <v>11.82</v>
       </c>
       <c r="H8" t="n">
-        <v>4.57</v>
+        <v>4.6</v>
       </c>
       <c r="I8" t="n">
         <v>13</v>
@@ -1232,25 +1232,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10637</v>
+        <v>11125</v>
       </c>
       <c r="C9" t="n">
-        <v>3992</v>
+        <v>4205</v>
       </c>
       <c r="D9" t="n">
-        <v>201</v>
+        <v>608</v>
       </c>
       <c r="E9" t="n">
-        <v>996</v>
+        <v>864</v>
       </c>
       <c r="F9" t="n">
         <v>5448</v>
       </c>
       <c r="G9" t="n">
-        <v>10.62</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>7.72</v>
+        <v>7.07</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1266,31 +1266,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14514</v>
+        <v>11554</v>
       </c>
       <c r="C10" t="n">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="D10" t="n">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E10" t="n">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="F10" t="n">
-        <v>13845</v>
+        <v>10900</v>
       </c>
       <c r="G10" t="n">
-        <v>2.68</v>
+        <v>5.36</v>
       </c>
       <c r="H10" t="n">
-        <v>17.68</v>
+        <v>18.74</v>
       </c>
       <c r="I10" t="n">
+        <v>9</v>
+      </c>
+      <c r="J10" t="n">
         <v>12</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1300,25 +1300,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15948</v>
+        <v>17183</v>
       </c>
       <c r="C11" t="n">
-        <v>1179</v>
+        <v>1492</v>
       </c>
       <c r="D11" t="n">
-        <v>567</v>
+        <v>588</v>
       </c>
       <c r="E11" t="n">
-        <v>1954</v>
+        <v>1920</v>
       </c>
       <c r="F11" t="n">
-        <v>12247</v>
+        <v>13181</v>
       </c>
       <c r="G11" t="n">
-        <v>18.83</v>
+        <v>17.11</v>
       </c>
       <c r="H11" t="n">
-        <v>5.51</v>
+        <v>5.72</v>
       </c>
       <c r="I11" t="n">
         <v>51</v>
@@ -1334,31 +1334,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14563</v>
+        <v>13516</v>
       </c>
       <c r="C12" t="n">
-        <v>1352</v>
+        <v>1306</v>
       </c>
       <c r="D12" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E12" t="n">
-        <v>712</v>
+        <v>698</v>
       </c>
       <c r="F12" t="n">
-        <v>12401</v>
+        <v>11420</v>
       </c>
       <c r="G12" t="n">
-        <v>8.73</v>
+        <v>9.41</v>
       </c>
       <c r="H12" t="n">
-        <v>9.68</v>
+        <v>9.85</v>
       </c>
       <c r="I12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -1368,25 +1368,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6960</v>
+        <v>7168</v>
       </c>
       <c r="C13" t="n">
-        <v>3007</v>
+        <v>3081</v>
       </c>
       <c r="D13" t="n">
-        <v>215</v>
+        <v>415</v>
       </c>
       <c r="E13" t="n">
-        <v>1013</v>
+        <v>948</v>
       </c>
       <c r="F13" t="n">
         <v>2724</v>
       </c>
       <c r="G13" t="n">
-        <v>6.88</v>
+        <v>6.66</v>
       </c>
       <c r="H13" t="n">
-        <v>11.67</v>
+        <v>11.24</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/metrics/metricas_analysis.xlsx
+++ b/metrics/metricas_analysis.xlsx
@@ -570,7 +570,7 @@
         <v>16.2</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -641,7 +641,7 @@
         <v>9</v>
       </c>
       <c r="J6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
@@ -672,7 +672,7 @@
         <v>2.68</v>
       </c>
       <c r="I7" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J7" t="n">
         <v>9</v>
@@ -774,10 +774,10 @@
         <v>22.29</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -808,7 +808,7 @@
         <v>8.18</v>
       </c>
       <c r="I11" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J11" t="n">
         <v>9</v>
@@ -842,10 +842,10 @@
         <v>13.36</v>
       </c>
       <c r="I12" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J12" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -994,25 +994,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3211</v>
+        <v>3131</v>
       </c>
       <c r="C2" t="n">
-        <v>1957</v>
+        <v>1887</v>
       </c>
       <c r="D2" t="n">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E2" t="n">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.71</v>
+        <v>3.67</v>
       </c>
       <c r="H2" t="n">
-        <v>15.39</v>
+        <v>15.46</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1028,31 +1028,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14206</v>
+        <v>13344</v>
       </c>
       <c r="C3" t="n">
-        <v>1034</v>
+        <v>944</v>
       </c>
       <c r="D3" t="n">
-        <v>314</v>
+        <v>343</v>
       </c>
       <c r="E3" t="n">
-        <v>959</v>
+        <v>829</v>
       </c>
       <c r="F3" t="n">
-        <v>11899</v>
+        <v>11228</v>
       </c>
       <c r="G3" t="n">
-        <v>9.35</v>
+        <v>9.82</v>
       </c>
       <c r="H3" t="n">
-        <v>22.59</v>
+        <v>22.08</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1062,10 +1062,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14085</v>
+        <v>13812</v>
       </c>
       <c r="C4" t="n">
-        <v>489</v>
+        <v>606</v>
       </c>
       <c r="D4" t="n">
         <v>273</v>
@@ -1074,16 +1074,16 @@
         <v>231</v>
       </c>
       <c r="F4" t="n">
-        <v>13092</v>
+        <v>12702</v>
       </c>
       <c r="G4" t="n">
-        <v>18.82</v>
+        <v>16.63</v>
       </c>
       <c r="H4" t="n">
-        <v>7.02</v>
+        <v>6.2</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>4.55</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1130,31 +1130,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9385</v>
+        <v>9397</v>
       </c>
       <c r="C6" t="n">
-        <v>1879</v>
+        <v>1769</v>
       </c>
       <c r="D6" t="n">
-        <v>167</v>
+        <v>275</v>
       </c>
       <c r="E6" t="n">
-        <v>904</v>
+        <v>918</v>
       </c>
       <c r="F6" t="n">
         <v>6435</v>
       </c>
       <c r="G6" t="n">
-        <v>7.28</v>
+        <v>6.89</v>
       </c>
       <c r="H6" t="n">
-        <v>6.26</v>
+        <v>5.98</v>
       </c>
       <c r="I6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
@@ -1164,31 +1164,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24962</v>
+        <v>24502</v>
       </c>
       <c r="C7" t="n">
-        <v>3186</v>
+        <v>2752</v>
       </c>
       <c r="D7" t="n">
-        <v>893</v>
+        <v>759</v>
       </c>
       <c r="E7" t="n">
-        <v>3441</v>
+        <v>3549</v>
       </c>
       <c r="F7" t="n">
         <v>17442</v>
       </c>
       <c r="G7" t="n">
-        <v>20.68</v>
+        <v>15.68</v>
       </c>
       <c r="H7" t="n">
-        <v>5.56</v>
+        <v>6.17</v>
       </c>
       <c r="I7" t="n">
         <v>35</v>
       </c>
       <c r="J7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -1198,28 +1198,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12502</v>
+        <v>12430</v>
       </c>
       <c r="C8" t="n">
-        <v>802</v>
+        <v>938</v>
       </c>
       <c r="D8" t="n">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="E8" t="n">
-        <v>2090</v>
+        <v>1917</v>
       </c>
       <c r="F8" t="n">
         <v>9011</v>
       </c>
       <c r="G8" t="n">
-        <v>11.82</v>
+        <v>10.56</v>
       </c>
       <c r="H8" t="n">
-        <v>4.6</v>
+        <v>4.16</v>
       </c>
       <c r="I8" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -1232,25 +1232,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11125</v>
+        <v>11024</v>
       </c>
       <c r="C9" t="n">
-        <v>4205</v>
+        <v>3795</v>
       </c>
       <c r="D9" t="n">
-        <v>608</v>
+        <v>559</v>
       </c>
       <c r="E9" t="n">
-        <v>864</v>
+        <v>1222</v>
       </c>
       <c r="F9" t="n">
         <v>5448</v>
       </c>
       <c r="G9" t="n">
-        <v>9.609999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>7.07</v>
+        <v>6.69</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1266,31 +1266,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11554</v>
+        <v>22161</v>
       </c>
       <c r="C10" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D10" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E10" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F10" t="n">
-        <v>10900</v>
+        <v>21507</v>
       </c>
       <c r="G10" t="n">
-        <v>5.36</v>
+        <v>5.6</v>
       </c>
       <c r="H10" t="n">
-        <v>18.74</v>
+        <v>19.01</v>
       </c>
       <c r="I10" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1300,31 +1300,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17183</v>
+        <v>16914</v>
       </c>
       <c r="C11" t="n">
-        <v>1492</v>
+        <v>1432</v>
       </c>
       <c r="D11" t="n">
-        <v>588</v>
+        <v>532</v>
       </c>
       <c r="E11" t="n">
-        <v>1920</v>
+        <v>1899</v>
       </c>
       <c r="F11" t="n">
-        <v>13181</v>
+        <v>13051</v>
       </c>
       <c r="G11" t="n">
-        <v>17.11</v>
+        <v>14.29</v>
       </c>
       <c r="H11" t="n">
-        <v>5.72</v>
+        <v>5.51</v>
       </c>
       <c r="I11" t="n">
         <v>51</v>
       </c>
       <c r="J11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
@@ -1334,31 +1334,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13516</v>
+        <v>17055</v>
       </c>
       <c r="C12" t="n">
-        <v>1306</v>
+        <v>1270</v>
       </c>
       <c r="D12" t="n">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="E12" t="n">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="F12" t="n">
-        <v>11420</v>
+        <v>14955</v>
       </c>
       <c r="G12" t="n">
-        <v>9.41</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="H12" t="n">
         <v>9.85</v>
       </c>
       <c r="I12" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="J12" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
@@ -1368,25 +1368,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7168</v>
+        <v>7077</v>
       </c>
       <c r="C13" t="n">
-        <v>3081</v>
+        <v>2841</v>
       </c>
       <c r="D13" t="n">
-        <v>415</v>
+        <v>386</v>
       </c>
       <c r="E13" t="n">
-        <v>948</v>
+        <v>1126</v>
       </c>
       <c r="F13" t="n">
         <v>2724</v>
       </c>
       <c r="G13" t="n">
-        <v>6.66</v>
+        <v>6.52</v>
       </c>
       <c r="H13" t="n">
-        <v>11.24</v>
+        <v>11.08</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1402,31 +1402,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>14206</v>
+        <v>13344</v>
       </c>
       <c r="C14" t="n">
-        <v>1034</v>
+        <v>944</v>
       </c>
       <c r="D14" t="n">
-        <v>314</v>
+        <v>343</v>
       </c>
       <c r="E14" t="n">
-        <v>959</v>
+        <v>829</v>
       </c>
       <c r="F14" t="n">
-        <v>11899</v>
+        <v>11228</v>
       </c>
       <c r="G14" t="n">
-        <v>9.35</v>
+        <v>9.82</v>
       </c>
       <c r="H14" t="n">
-        <v>22.59</v>
+        <v>22.08</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/metrics/metricas_analysis.xlsx
+++ b/metrics/metricas_analysis.xlsx
@@ -481,25 +481,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2163</v>
+        <v>1491</v>
       </c>
       <c r="C2" t="n">
-        <v>982</v>
+        <v>577</v>
       </c>
       <c r="D2" t="n">
-        <v>309</v>
+        <v>264</v>
       </c>
       <c r="E2" t="n">
-        <v>872</v>
+        <v>650</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.31</v>
+        <v>4.33</v>
       </c>
       <c r="H2" t="n">
-        <v>41.7</v>
+        <v>42.33</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -515,19 +515,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11586</v>
+        <v>8315</v>
       </c>
       <c r="C3" t="n">
-        <v>610</v>
+        <v>445</v>
       </c>
       <c r="D3" t="n">
-        <v>2381</v>
+        <v>1581</v>
       </c>
       <c r="E3" t="n">
-        <v>3001</v>
+        <v>2040</v>
       </c>
       <c r="F3" t="n">
-        <v>5594</v>
+        <v>4249</v>
       </c>
       <c r="G3" t="n">
         <v>23.03</v>
@@ -549,16 +549,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1448</v>
+        <v>1052</v>
       </c>
       <c r="C4" t="n">
-        <v>605</v>
+        <v>413</v>
       </c>
       <c r="D4" t="n">
-        <v>392</v>
+        <v>271</v>
       </c>
       <c r="E4" t="n">
-        <v>451</v>
+        <v>368</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -583,19 +583,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18543</v>
+        <v>12426</v>
       </c>
       <c r="C5" t="n">
-        <v>231</v>
+        <v>144</v>
       </c>
       <c r="D5" t="n">
-        <v>1086</v>
+        <v>649</v>
       </c>
       <c r="E5" t="n">
-        <v>476</v>
+        <v>389</v>
       </c>
       <c r="F5" t="n">
-        <v>16750</v>
+        <v>11244</v>
       </c>
       <c r="G5" t="n">
         <v>17.64</v>
@@ -617,19 +617,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9872</v>
+        <v>6817</v>
       </c>
       <c r="C6" t="n">
-        <v>1044</v>
+        <v>838</v>
       </c>
       <c r="D6" t="n">
-        <v>262</v>
+        <v>220</v>
       </c>
       <c r="E6" t="n">
-        <v>878</v>
+        <v>548</v>
       </c>
       <c r="F6" t="n">
-        <v>7688</v>
+        <v>5211</v>
       </c>
       <c r="G6" t="n">
         <v>6.99</v>
@@ -651,19 +651,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17567</v>
+        <v>11664</v>
       </c>
       <c r="C7" t="n">
-        <v>1747</v>
+        <v>1278</v>
       </c>
       <c r="D7" t="n">
-        <v>327</v>
+        <v>288</v>
       </c>
       <c r="E7" t="n">
-        <v>1931</v>
+        <v>1423</v>
       </c>
       <c r="F7" t="n">
-        <v>13562</v>
+        <v>8675</v>
       </c>
       <c r="G7" t="n">
         <v>23.4</v>
@@ -685,19 +685,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20325</v>
+        <v>14070</v>
       </c>
       <c r="C8" t="n">
-        <v>1307</v>
+        <v>935</v>
       </c>
       <c r="D8" t="n">
-        <v>1086</v>
+        <v>707</v>
       </c>
       <c r="E8" t="n">
-        <v>4313</v>
+        <v>2913</v>
       </c>
       <c r="F8" t="n">
-        <v>13619</v>
+        <v>9515</v>
       </c>
       <c r="G8" t="n">
         <v>7.93</v>
@@ -719,19 +719,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13828</v>
+        <v>9167</v>
       </c>
       <c r="C9" t="n">
-        <v>3078</v>
+        <v>2094</v>
       </c>
       <c r="D9" t="n">
         <v>69</v>
       </c>
       <c r="E9" t="n">
-        <v>479</v>
+        <v>403</v>
       </c>
       <c r="F9" t="n">
-        <v>10202</v>
+        <v>6601</v>
       </c>
       <c r="G9" t="n">
         <v>9.57</v>
@@ -753,19 +753,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15629</v>
+        <v>10694</v>
       </c>
       <c r="C10" t="n">
-        <v>876</v>
+        <v>596</v>
       </c>
       <c r="D10" t="n">
-        <v>308</v>
+        <v>228</v>
       </c>
       <c r="E10" t="n">
-        <v>406</v>
+        <v>287</v>
       </c>
       <c r="F10" t="n">
-        <v>14039</v>
+        <v>9583</v>
       </c>
       <c r="G10" t="n">
         <v>2.94</v>
@@ -787,19 +787,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13113</v>
+        <v>8928</v>
       </c>
       <c r="C11" t="n">
-        <v>1219</v>
+        <v>875</v>
       </c>
       <c r="D11" t="n">
-        <v>601</v>
+        <v>422</v>
       </c>
       <c r="E11" t="n">
-        <v>2231</v>
+        <v>1568</v>
       </c>
       <c r="F11" t="n">
-        <v>9060</v>
+        <v>6063</v>
       </c>
       <c r="G11" t="n">
         <v>12</v>
@@ -821,19 +821,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14681</v>
+        <v>9979</v>
       </c>
       <c r="C12" t="n">
-        <v>717</v>
+        <v>526</v>
       </c>
       <c r="D12" t="n">
-        <v>552</v>
+        <v>365</v>
       </c>
       <c r="E12" t="n">
-        <v>586</v>
+        <v>408</v>
       </c>
       <c r="F12" t="n">
-        <v>12825</v>
+        <v>8679</v>
       </c>
       <c r="G12" t="n">
         <v>9.19</v>
@@ -855,25 +855,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7995</v>
+        <v>5329</v>
       </c>
       <c r="C13" t="n">
-        <v>2030</v>
+        <v>1335</v>
       </c>
       <c r="D13" t="n">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="E13" t="n">
-        <v>675</v>
+        <v>526</v>
       </c>
       <c r="F13" t="n">
-        <v>5101</v>
+        <v>3300</v>
       </c>
       <c r="G13" t="n">
-        <v>6.94</v>
+        <v>6.95</v>
       </c>
       <c r="H13" t="n">
-        <v>22.38</v>
+        <v>22.69</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -889,19 +889,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11586</v>
+        <v>8315</v>
       </c>
       <c r="C14" t="n">
-        <v>610</v>
+        <v>445</v>
       </c>
       <c r="D14" t="n">
-        <v>2381</v>
+        <v>1581</v>
       </c>
       <c r="E14" t="n">
-        <v>3001</v>
+        <v>2040</v>
       </c>
       <c r="F14" t="n">
-        <v>5594</v>
+        <v>4249</v>
       </c>
       <c r="G14" t="n">
         <v>23.03</v>
@@ -994,25 +994,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3131</v>
+        <v>2295</v>
       </c>
       <c r="C2" t="n">
-        <v>1887</v>
+        <v>1285</v>
       </c>
       <c r="D2" t="n">
-        <v>214</v>
+        <v>153</v>
       </c>
       <c r="E2" t="n">
-        <v>1030</v>
+        <v>857</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.67</v>
+        <v>3.42</v>
       </c>
       <c r="H2" t="n">
-        <v>15.46</v>
+        <v>16.25</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1028,25 +1028,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13344</v>
+        <v>9426</v>
       </c>
       <c r="C3" t="n">
-        <v>944</v>
+        <v>677</v>
       </c>
       <c r="D3" t="n">
-        <v>343</v>
+        <v>254</v>
       </c>
       <c r="E3" t="n">
-        <v>829</v>
+        <v>681</v>
       </c>
       <c r="F3" t="n">
-        <v>11228</v>
+        <v>7814</v>
       </c>
       <c r="G3" t="n">
         <v>9.82</v>
       </c>
       <c r="H3" t="n">
-        <v>22.08</v>
+        <v>22.07</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -1062,25 +1062,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13812</v>
+        <v>9362</v>
       </c>
       <c r="C4" t="n">
-        <v>606</v>
+        <v>385</v>
       </c>
       <c r="D4" t="n">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="E4" t="n">
-        <v>231</v>
+        <v>153</v>
       </c>
       <c r="F4" t="n">
-        <v>12702</v>
+        <v>8591</v>
       </c>
       <c r="G4" t="n">
-        <v>16.63</v>
+        <v>15.04</v>
       </c>
       <c r="H4" t="n">
-        <v>6.2</v>
+        <v>5.94</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19609</v>
+        <v>20624</v>
       </c>
       <c r="C5" t="n">
-        <v>1714</v>
+        <v>1189</v>
       </c>
       <c r="D5" t="n">
         <v>50</v>
       </c>
       <c r="E5" t="n">
-        <v>920</v>
+        <v>508</v>
       </c>
       <c r="F5" t="n">
-        <v>16925</v>
+        <v>18877</v>
       </c>
       <c r="G5" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="H5" t="n">
-        <v>4.55</v>
+        <v>5.25</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9397</v>
+        <v>6848</v>
       </c>
       <c r="C6" t="n">
-        <v>1769</v>
+        <v>1292</v>
       </c>
       <c r="D6" t="n">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="E6" t="n">
-        <v>918</v>
+        <v>656</v>
       </c>
       <c r="F6" t="n">
-        <v>6435</v>
+        <v>4657</v>
       </c>
       <c r="G6" t="n">
         <v>6.89</v>
@@ -1164,25 +1164,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24502</v>
+        <v>17660</v>
       </c>
       <c r="C7" t="n">
-        <v>2752</v>
+        <v>2053</v>
       </c>
       <c r="D7" t="n">
-        <v>759</v>
+        <v>534</v>
       </c>
       <c r="E7" t="n">
-        <v>3549</v>
+        <v>2633</v>
       </c>
       <c r="F7" t="n">
-        <v>17442</v>
+        <v>12440</v>
       </c>
       <c r="G7" t="n">
-        <v>15.68</v>
+        <v>18.35</v>
       </c>
       <c r="H7" t="n">
-        <v>6.17</v>
+        <v>4.89</v>
       </c>
       <c r="I7" t="n">
         <v>35</v>
@@ -1198,25 +1198,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12430</v>
+        <v>8983</v>
       </c>
       <c r="C8" t="n">
-        <v>938</v>
+        <v>622</v>
       </c>
       <c r="D8" t="n">
-        <v>564</v>
+        <v>332</v>
       </c>
       <c r="E8" t="n">
-        <v>1917</v>
+        <v>1359</v>
       </c>
       <c r="F8" t="n">
-        <v>9011</v>
+        <v>6670</v>
       </c>
       <c r="G8" t="n">
-        <v>10.56</v>
+        <v>10.46</v>
       </c>
       <c r="H8" t="n">
-        <v>4.16</v>
+        <v>4.11</v>
       </c>
       <c r="I8" t="n">
         <v>16</v>
@@ -1232,25 +1232,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11024</v>
+        <v>7998</v>
       </c>
       <c r="C9" t="n">
-        <v>3795</v>
+        <v>2527</v>
       </c>
       <c r="D9" t="n">
-        <v>559</v>
+        <v>421</v>
       </c>
       <c r="E9" t="n">
-        <v>1222</v>
+        <v>912</v>
       </c>
       <c r="F9" t="n">
-        <v>5448</v>
+        <v>4138</v>
       </c>
       <c r="G9" t="n">
-        <v>9.369999999999999</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>6.69</v>
+        <v>6.81</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1266,25 +1266,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22161</v>
+        <v>15507</v>
       </c>
       <c r="C10" t="n">
-        <v>328</v>
+        <v>223</v>
       </c>
       <c r="D10" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="E10" t="n">
-        <v>270</v>
+        <v>219</v>
       </c>
       <c r="F10" t="n">
-        <v>21507</v>
+        <v>15035</v>
       </c>
       <c r="G10" t="n">
-        <v>5.6</v>
+        <v>5.47</v>
       </c>
       <c r="H10" t="n">
-        <v>19.01</v>
+        <v>19</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1300,25 +1300,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16914</v>
+        <v>12001</v>
       </c>
       <c r="C11" t="n">
-        <v>1432</v>
+        <v>1020</v>
       </c>
       <c r="D11" t="n">
-        <v>532</v>
+        <v>366</v>
       </c>
       <c r="E11" t="n">
-        <v>1899</v>
+        <v>1381</v>
       </c>
       <c r="F11" t="n">
-        <v>13051</v>
+        <v>9233</v>
       </c>
       <c r="G11" t="n">
-        <v>14.29</v>
+        <v>14.62</v>
       </c>
       <c r="H11" t="n">
-        <v>5.51</v>
+        <v>4.97</v>
       </c>
       <c r="I11" t="n">
         <v>51</v>
@@ -1334,25 +1334,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17055</v>
+        <v>14326</v>
       </c>
       <c r="C12" t="n">
-        <v>1270</v>
+        <v>901</v>
       </c>
       <c r="D12" t="n">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="E12" t="n">
-        <v>702</v>
+        <v>461</v>
       </c>
       <c r="F12" t="n">
-        <v>14955</v>
+        <v>12856</v>
       </c>
       <c r="G12" t="n">
-        <v>9.359999999999999</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>9.85</v>
+        <v>10.08</v>
       </c>
       <c r="I12" t="n">
         <v>8</v>
@@ -1368,25 +1368,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7077</v>
+        <v>5146</v>
       </c>
       <c r="C13" t="n">
-        <v>2841</v>
+        <v>1906</v>
       </c>
       <c r="D13" t="n">
-        <v>386</v>
+        <v>287</v>
       </c>
       <c r="E13" t="n">
-        <v>1126</v>
+        <v>884</v>
       </c>
       <c r="F13" t="n">
-        <v>2724</v>
+        <v>2069</v>
       </c>
       <c r="G13" t="n">
-        <v>6.52</v>
+        <v>6.26</v>
       </c>
       <c r="H13" t="n">
-        <v>11.08</v>
+        <v>11.53</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1402,25 +1402,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13344</v>
+        <v>9426</v>
       </c>
       <c r="C14" t="n">
-        <v>944</v>
+        <v>677</v>
       </c>
       <c r="D14" t="n">
-        <v>343</v>
+        <v>254</v>
       </c>
       <c r="E14" t="n">
-        <v>829</v>
+        <v>681</v>
       </c>
       <c r="F14" t="n">
-        <v>11228</v>
+        <v>7814</v>
       </c>
       <c r="G14" t="n">
         <v>9.82</v>
       </c>
       <c r="H14" t="n">
-        <v>22.08</v>
+        <v>22.06</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>

--- a/metrics/metricas_analysis.xlsx
+++ b/metrics/metricas_analysis.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,11 @@
           <t>dt_total_raw</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>total_release_deploy_raw</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -507,6 +512,9 @@
       <c r="J2" t="n">
         <v>0</v>
       </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -541,6 +549,9 @@
       <c r="J3" t="n">
         <v>2</v>
       </c>
+      <c r="K3" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -575,6 +586,9 @@
       <c r="J4" t="n">
         <v>0</v>
       </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -609,6 +623,9 @@
       <c r="J5" t="n">
         <v>0</v>
       </c>
+      <c r="K5" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -643,6 +660,9 @@
       <c r="J6" t="n">
         <v>19</v>
       </c>
+      <c r="K6" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -666,10 +686,10 @@
         <v>8675</v>
       </c>
       <c r="G7" t="n">
-        <v>23.4</v>
+        <v>23.75</v>
       </c>
       <c r="H7" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="I7" t="n">
         <v>31</v>
@@ -677,6 +697,9 @@
       <c r="J7" t="n">
         <v>9</v>
       </c>
+      <c r="K7" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -685,7 +708,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14070</v>
+        <v>17667</v>
       </c>
       <c r="C8" t="n">
         <v>935</v>
@@ -697,7 +720,7 @@
         <v>2913</v>
       </c>
       <c r="F8" t="n">
-        <v>9515</v>
+        <v>13112</v>
       </c>
       <c r="G8" t="n">
         <v>7.93</v>
@@ -711,6 +734,9 @@
       <c r="J8" t="n">
         <v>0</v>
       </c>
+      <c r="K8" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -719,7 +745,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9167</v>
+        <v>12031</v>
       </c>
       <c r="C9" t="n">
         <v>2094</v>
@@ -731,7 +757,7 @@
         <v>403</v>
       </c>
       <c r="F9" t="n">
-        <v>6601</v>
+        <v>9465</v>
       </c>
       <c r="G9" t="n">
         <v>9.57</v>
@@ -745,6 +771,9 @@
       <c r="J9" t="n">
         <v>0</v>
       </c>
+      <c r="K9" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -779,6 +808,9 @@
       <c r="J10" t="n">
         <v>0</v>
       </c>
+      <c r="K10" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -787,7 +819,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8928</v>
+        <v>10127</v>
       </c>
       <c r="C11" t="n">
         <v>875</v>
@@ -799,13 +831,13 @@
         <v>1568</v>
       </c>
       <c r="F11" t="n">
-        <v>6063</v>
+        <v>7262</v>
       </c>
       <c r="G11" t="n">
-        <v>12</v>
+        <v>12.11</v>
       </c>
       <c r="H11" t="n">
-        <v>8.18</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I11" t="n">
         <v>46</v>
@@ -813,6 +845,9 @@
       <c r="J11" t="n">
         <v>9</v>
       </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -847,6 +882,9 @@
       <c r="J12" t="n">
         <v>19</v>
       </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -855,7 +893,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5329</v>
+        <v>6761</v>
       </c>
       <c r="C13" t="n">
         <v>1335</v>
@@ -867,7 +905,7 @@
         <v>526</v>
       </c>
       <c r="F13" t="n">
-        <v>3300</v>
+        <v>4732</v>
       </c>
       <c r="G13" t="n">
         <v>6.95</v>
@@ -881,6 +919,9 @@
       <c r="J13" t="n">
         <v>0</v>
       </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -914,6 +955,9 @@
       </c>
       <c r="J14" t="n">
         <v>2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -927,7 +971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -986,6 +1030,11 @@
           <t>dt_total_raw</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>total_release_deploy_raw</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -994,30 +1043,33 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2295</v>
+        <v>2230</v>
       </c>
       <c r="C2" t="n">
-        <v>1285</v>
+        <v>1184</v>
       </c>
       <c r="D2" t="n">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E2" t="n">
-        <v>857</v>
+        <v>901</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.42</v>
+        <v>3.51</v>
       </c>
       <c r="H2" t="n">
-        <v>16.25</v>
+        <v>15.47</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1028,25 +1080,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9426</v>
+        <v>9496</v>
       </c>
       <c r="C3" t="n">
-        <v>677</v>
+        <v>713</v>
       </c>
       <c r="D3" t="n">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="E3" t="n">
-        <v>681</v>
+        <v>728</v>
       </c>
       <c r="F3" t="n">
         <v>7814</v>
       </c>
       <c r="G3" t="n">
-        <v>9.82</v>
+        <v>9.59</v>
       </c>
       <c r="H3" t="n">
-        <v>22.07</v>
+        <v>22.32</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -1054,6 +1106,9 @@
       <c r="J3" t="n">
         <v>2</v>
       </c>
+      <c r="K3" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1062,31 +1117,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9362</v>
+        <v>13292</v>
       </c>
       <c r="C4" t="n">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="D4" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E4" t="n">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F4" t="n">
-        <v>8591</v>
+        <v>12544</v>
       </c>
       <c r="G4" t="n">
-        <v>15.04</v>
+        <v>14.75</v>
       </c>
       <c r="H4" t="n">
-        <v>5.94</v>
+        <v>6.3</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1096,31 +1154,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20624</v>
+        <v>22623</v>
       </c>
       <c r="C5" t="n">
-        <v>1189</v>
+        <v>1440</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E5" t="n">
-        <v>508</v>
+        <v>592</v>
       </c>
       <c r="F5" t="n">
-        <v>18877</v>
+        <v>20534</v>
       </c>
       <c r="G5" t="n">
-        <v>16</v>
+        <v>15.63</v>
       </c>
       <c r="H5" t="n">
-        <v>5.25</v>
+        <v>5.03</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1130,25 +1191,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6848</v>
+        <v>6889</v>
       </c>
       <c r="C6" t="n">
-        <v>1292</v>
+        <v>1401</v>
       </c>
       <c r="D6" t="n">
-        <v>243</v>
+        <v>187</v>
       </c>
       <c r="E6" t="n">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="F6" t="n">
         <v>4657</v>
       </c>
       <c r="G6" t="n">
-        <v>6.89</v>
+        <v>7.41</v>
       </c>
       <c r="H6" t="n">
-        <v>5.98</v>
+        <v>6.45</v>
       </c>
       <c r="I6" t="n">
         <v>8</v>
@@ -1156,6 +1217,9 @@
       <c r="J6" t="n">
         <v>21</v>
       </c>
+      <c r="K6" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1164,25 +1228,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17660</v>
+        <v>16710</v>
       </c>
       <c r="C7" t="n">
-        <v>2053</v>
+        <v>1561</v>
       </c>
       <c r="D7" t="n">
-        <v>534</v>
+        <v>442</v>
       </c>
       <c r="E7" t="n">
-        <v>2633</v>
+        <v>2267</v>
       </c>
       <c r="F7" t="n">
         <v>12440</v>
       </c>
       <c r="G7" t="n">
-        <v>18.35</v>
+        <v>21.45</v>
       </c>
       <c r="H7" t="n">
-        <v>4.89</v>
+        <v>5.41</v>
       </c>
       <c r="I7" t="n">
         <v>35</v>
@@ -1190,6 +1254,9 @@
       <c r="J7" t="n">
         <v>21</v>
       </c>
+      <c r="K7" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1198,25 +1265,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8983</v>
+        <v>9668</v>
       </c>
       <c r="C8" t="n">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D8" t="n">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="E8" t="n">
-        <v>1359</v>
+        <v>1412</v>
       </c>
       <c r="F8" t="n">
-        <v>6670</v>
+        <v>7277</v>
       </c>
       <c r="G8" t="n">
-        <v>10.46</v>
+        <v>11.11</v>
       </c>
       <c r="H8" t="n">
-        <v>4.11</v>
+        <v>4.32</v>
       </c>
       <c r="I8" t="n">
         <v>16</v>
@@ -1224,6 +1291,9 @@
       <c r="J8" t="n">
         <v>1</v>
       </c>
+      <c r="K8" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1232,31 +1302,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7998</v>
+        <v>7934</v>
       </c>
       <c r="C9" t="n">
-        <v>2527</v>
+        <v>2615</v>
       </c>
       <c r="D9" t="n">
-        <v>421</v>
+        <v>314</v>
       </c>
       <c r="E9" t="n">
-        <v>912</v>
+        <v>867</v>
       </c>
       <c r="F9" t="n">
         <v>4138</v>
       </c>
       <c r="G9" t="n">
-        <v>9.109999999999999</v>
+        <v>9.06</v>
       </c>
       <c r="H9" t="n">
-        <v>6.81</v>
+        <v>6.66</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1266,31 +1339,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15507</v>
+        <v>16183</v>
       </c>
       <c r="C10" t="n">
+        <v>241</v>
+      </c>
+      <c r="D10" t="n">
+        <v>32</v>
+      </c>
+      <c r="E10" t="n">
         <v>223</v>
       </c>
-      <c r="D10" t="n">
-        <v>30</v>
-      </c>
-      <c r="E10" t="n">
-        <v>219</v>
-      </c>
       <c r="F10" t="n">
-        <v>15035</v>
+        <v>15687</v>
       </c>
       <c r="G10" t="n">
-        <v>5.47</v>
+        <v>4.22</v>
       </c>
       <c r="H10" t="n">
-        <v>19</v>
+        <v>18.65</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1300,25 +1376,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12001</v>
+        <v>13223</v>
       </c>
       <c r="C11" t="n">
-        <v>1020</v>
+        <v>846</v>
       </c>
       <c r="D11" t="n">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="E11" t="n">
-        <v>1381</v>
+        <v>1279</v>
       </c>
       <c r="F11" t="n">
-        <v>9233</v>
+        <v>10753</v>
       </c>
       <c r="G11" t="n">
-        <v>14.62</v>
+        <v>15.77</v>
       </c>
       <c r="H11" t="n">
-        <v>4.97</v>
+        <v>5.34</v>
       </c>
       <c r="I11" t="n">
         <v>51</v>
@@ -1326,6 +1402,9 @@
       <c r="J11" t="n">
         <v>22</v>
       </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1334,25 +1413,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14326</v>
+        <v>15231</v>
       </c>
       <c r="C12" t="n">
-        <v>901</v>
+        <v>1027</v>
       </c>
       <c r="D12" t="n">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="E12" t="n">
-        <v>461</v>
+        <v>486</v>
       </c>
       <c r="F12" t="n">
-        <v>12856</v>
+        <v>13626</v>
       </c>
       <c r="G12" t="n">
-        <v>9.449999999999999</v>
+        <v>9.09</v>
       </c>
       <c r="H12" t="n">
-        <v>10.08</v>
+        <v>10.04</v>
       </c>
       <c r="I12" t="n">
         <v>8</v>
@@ -1360,6 +1439,9 @@
       <c r="J12" t="n">
         <v>21</v>
       </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1368,13 +1450,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5146</v>
+        <v>5082</v>
       </c>
       <c r="C13" t="n">
-        <v>1906</v>
+        <v>1899</v>
       </c>
       <c r="D13" t="n">
-        <v>287</v>
+        <v>229</v>
       </c>
       <c r="E13" t="n">
         <v>884</v>
@@ -1383,15 +1465,18 @@
         <v>2069</v>
       </c>
       <c r="G13" t="n">
-        <v>6.26</v>
+        <v>6.28</v>
       </c>
       <c r="H13" t="n">
-        <v>11.53</v>
+        <v>11.06</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1402,31 +1487,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9426</v>
+        <v>9496</v>
       </c>
       <c r="C14" t="n">
-        <v>677</v>
+        <v>713</v>
       </c>
       <c r="D14" t="n">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="E14" t="n">
-        <v>681</v>
+        <v>728</v>
       </c>
       <c r="F14" t="n">
         <v>7814</v>
       </c>
       <c r="G14" t="n">
-        <v>9.82</v>
+        <v>9.59</v>
       </c>
       <c r="H14" t="n">
-        <v>22.06</v>
+        <v>22.32</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/metrics/metricas_analysis.xlsx
+++ b/metrics/metricas_analysis.xlsx
@@ -1080,13 +1080,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9496</v>
+        <v>9524</v>
       </c>
       <c r="C3" t="n">
-        <v>713</v>
+        <v>734</v>
       </c>
       <c r="D3" t="n">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="E3" t="n">
         <v>728</v>
@@ -1191,7 +1191,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6889</v>
+        <v>6942</v>
       </c>
       <c r="C6" t="n">
         <v>1401</v>
@@ -1200,7 +1200,7 @@
         <v>187</v>
       </c>
       <c r="E6" t="n">
-        <v>644</v>
+        <v>697</v>
       </c>
       <c r="F6" t="n">
         <v>4657</v>
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16710</v>
+        <v>16799</v>
       </c>
       <c r="C7" t="n">
         <v>1561</v>
@@ -1240,7 +1240,7 @@
         <v>2267</v>
       </c>
       <c r="F7" t="n">
-        <v>12440</v>
+        <v>12529</v>
       </c>
       <c r="G7" t="n">
         <v>21.45</v>
@@ -1265,16 +1265,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9668</v>
+        <v>9682</v>
       </c>
       <c r="C8" t="n">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="D8" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E8" t="n">
-        <v>1412</v>
+        <v>1420</v>
       </c>
       <c r="F8" t="n">
         <v>7277</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13223</v>
+        <v>13257</v>
       </c>
       <c r="C11" t="n">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="D11" t="n">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E11" t="n">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="F11" t="n">
-        <v>10753</v>
+        <v>10783</v>
       </c>
       <c r="G11" t="n">
         <v>15.77</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>15231</v>
+        <v>15249</v>
       </c>
       <c r="C12" t="n">
         <v>1027</v>
@@ -1422,7 +1422,7 @@
         <v>92</v>
       </c>
       <c r="E12" t="n">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="F12" t="n">
         <v>13626</v>
@@ -1487,13 +1487,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9496</v>
+        <v>9524</v>
       </c>
       <c r="C14" t="n">
-        <v>713</v>
+        <v>734</v>
       </c>
       <c r="D14" t="n">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="E14" t="n">
         <v>728</v>

--- a/metrics/metricas_analysis.xlsx
+++ b/metrics/metricas_analysis.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Octubre" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Noviembre" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Noviembre" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Diciembre" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,25 +486,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1491</v>
+        <v>2230</v>
       </c>
       <c r="C2" t="n">
-        <v>577</v>
+        <v>1184</v>
       </c>
       <c r="D2" t="n">
-        <v>264</v>
+        <v>145</v>
       </c>
       <c r="E2" t="n">
-        <v>650</v>
+        <v>901</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.33</v>
+        <v>3.51</v>
       </c>
       <c r="H2" t="n">
-        <v>42.33</v>
+        <v>15.49</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -523,34 +523,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8315</v>
+        <v>9524</v>
       </c>
       <c r="C3" t="n">
-        <v>445</v>
+        <v>734</v>
       </c>
       <c r="D3" t="n">
-        <v>1581</v>
+        <v>248</v>
       </c>
       <c r="E3" t="n">
-        <v>2040</v>
+        <v>728</v>
       </c>
       <c r="F3" t="n">
-        <v>4249</v>
+        <v>7814</v>
       </c>
       <c r="G3" t="n">
-        <v>23.03</v>
+        <v>9.59</v>
       </c>
       <c r="H3" t="n">
-        <v>4.13</v>
+        <v>22.32</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -560,34 +560,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1052</v>
+        <v>13319</v>
       </c>
       <c r="C4" t="n">
-        <v>413</v>
+        <v>386</v>
       </c>
       <c r="D4" t="n">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="E4" t="n">
-        <v>368</v>
+        <v>158</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>12544</v>
       </c>
       <c r="G4" t="n">
-        <v>4.66</v>
+        <v>14.75</v>
       </c>
       <c r="H4" t="n">
-        <v>16.2</v>
+        <v>6.3</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -597,34 +597,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12426</v>
+        <v>22623</v>
       </c>
       <c r="C5" t="n">
-        <v>144</v>
+        <v>1440</v>
       </c>
       <c r="D5" t="n">
-        <v>649</v>
+        <v>57</v>
       </c>
       <c r="E5" t="n">
-        <v>389</v>
+        <v>592</v>
       </c>
       <c r="F5" t="n">
-        <v>11244</v>
+        <v>20534</v>
       </c>
       <c r="G5" t="n">
-        <v>17.64</v>
+        <v>15.63</v>
       </c>
       <c r="H5" t="n">
-        <v>2.22</v>
+        <v>5.03</v>
       </c>
       <c r="I5" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -634,34 +634,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6817</v>
+        <v>6942</v>
       </c>
       <c r="C6" t="n">
-        <v>838</v>
+        <v>1401</v>
       </c>
       <c r="D6" t="n">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="E6" t="n">
-        <v>548</v>
+        <v>697</v>
       </c>
       <c r="F6" t="n">
-        <v>5211</v>
+        <v>4657</v>
       </c>
       <c r="G6" t="n">
-        <v>6.99</v>
+        <v>7.41</v>
       </c>
       <c r="H6" t="n">
-        <v>15.58</v>
+        <v>6.45</v>
       </c>
       <c r="I6" t="n">
         <v>9</v>
       </c>
       <c r="J6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11664</v>
+        <v>16799</v>
       </c>
       <c r="C7" t="n">
-        <v>1278</v>
+        <v>1561</v>
       </c>
       <c r="D7" t="n">
-        <v>288</v>
+        <v>442</v>
       </c>
       <c r="E7" t="n">
-        <v>1423</v>
+        <v>2267</v>
       </c>
       <c r="F7" t="n">
-        <v>8675</v>
+        <v>12529</v>
       </c>
       <c r="G7" t="n">
-        <v>23.75</v>
+        <v>21.45</v>
       </c>
       <c r="H7" t="n">
-        <v>2.72</v>
+        <v>5.41</v>
       </c>
       <c r="I7" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J7" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="K7" t="n">
         <v>5</v>
@@ -708,34 +708,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17667</v>
+        <v>9681</v>
       </c>
       <c r="C8" t="n">
-        <v>935</v>
+        <v>620</v>
       </c>
       <c r="D8" t="n">
-        <v>707</v>
+        <v>364</v>
       </c>
       <c r="E8" t="n">
-        <v>2913</v>
+        <v>1420</v>
       </c>
       <c r="F8" t="n">
-        <v>13112</v>
+        <v>7277</v>
       </c>
       <c r="G8" t="n">
-        <v>7.93</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>5.67</v>
+        <v>3.53</v>
       </c>
       <c r="I8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -745,25 +745,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12031</v>
+        <v>7934</v>
       </c>
       <c r="C9" t="n">
-        <v>2094</v>
+        <v>2615</v>
       </c>
       <c r="D9" t="n">
-        <v>69</v>
+        <v>314</v>
       </c>
       <c r="E9" t="n">
-        <v>403</v>
+        <v>867</v>
       </c>
       <c r="F9" t="n">
-        <v>9465</v>
+        <v>4138</v>
       </c>
       <c r="G9" t="n">
-        <v>9.57</v>
+        <v>9.06</v>
       </c>
       <c r="H9" t="n">
-        <v>3.07</v>
+        <v>6.66</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -772,115 +772,115 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>owner_tipodecambio</t>
+          <t>owner_ticketing</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10694</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>596</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>228</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>287</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>9583</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>2.94</v>
+        <v>7.89</v>
       </c>
       <c r="H10" t="n">
-        <v>22.29</v>
+        <v>1.68</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>retail</t>
+          <t>owner_tipodecambio</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10127</v>
+        <v>16183</v>
       </c>
       <c r="C11" t="n">
-        <v>875</v>
+        <v>241</v>
       </c>
       <c r="D11" t="n">
-        <v>422</v>
+        <v>32</v>
       </c>
       <c r="E11" t="n">
-        <v>1568</v>
+        <v>223</v>
       </c>
       <c r="F11" t="n">
-        <v>7262</v>
+        <v>15687</v>
       </c>
       <c r="G11" t="n">
-        <v>12.11</v>
+        <v>4.21</v>
       </c>
       <c r="H11" t="n">
-        <v>8.199999999999999</v>
+        <v>18.63</v>
       </c>
       <c r="I11" t="n">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>financial</t>
+          <t>retail</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9979</v>
+        <v>9949</v>
       </c>
       <c r="C12" t="n">
-        <v>526</v>
+        <v>641</v>
       </c>
       <c r="D12" t="n">
-        <v>365</v>
+        <v>259</v>
       </c>
       <c r="E12" t="n">
-        <v>408</v>
+        <v>961</v>
       </c>
       <c r="F12" t="n">
-        <v>8679</v>
+        <v>8087</v>
       </c>
       <c r="G12" t="n">
-        <v>9.19</v>
+        <v>13.24</v>
       </c>
       <c r="H12" t="n">
-        <v>13.36</v>
+        <v>4.23</v>
       </c>
       <c r="I12" t="n">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="J12" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -889,35 +889,35 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>negocios</t>
+          <t>financial</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6761</v>
+        <v>15249</v>
       </c>
       <c r="C13" t="n">
-        <v>1335</v>
+        <v>1027</v>
       </c>
       <c r="D13" t="n">
-        <v>166</v>
+        <v>92</v>
       </c>
       <c r="E13" t="n">
-        <v>526</v>
+        <v>504</v>
       </c>
       <c r="F13" t="n">
-        <v>4732</v>
+        <v>13626</v>
       </c>
       <c r="G13" t="n">
-        <v>6.95</v>
+        <v>9.08</v>
       </c>
       <c r="H13" t="n">
-        <v>22.69</v>
+        <v>10.04</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -926,37 +926,74 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>negocios</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5082</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1899</v>
+      </c>
+      <c r="D14" t="n">
+        <v>229</v>
+      </c>
+      <c r="E14" t="n">
+        <v>884</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2069</v>
+      </c>
+      <c r="G14" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="H14" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>product cx</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>8315</v>
-      </c>
-      <c r="C14" t="n">
-        <v>445</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1581</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2040</v>
-      </c>
-      <c r="F14" t="n">
-        <v>4249</v>
-      </c>
-      <c r="G14" t="n">
-        <v>23.03</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="B15" t="n">
+        <v>9524</v>
+      </c>
+      <c r="C15" t="n">
+        <v>734</v>
+      </c>
+      <c r="D15" t="n">
+        <v>248</v>
+      </c>
+      <c r="E15" t="n">
+        <v>728</v>
+      </c>
+      <c r="F15" t="n">
+        <v>7814</v>
+      </c>
+      <c r="G15" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="H15" t="n">
+        <v>22.32</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -971,7 +1008,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1043,25 +1080,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2230</v>
+        <v>18227</v>
       </c>
       <c r="C2" t="n">
-        <v>1184</v>
+        <v>286</v>
       </c>
       <c r="D2" t="n">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="E2" t="n">
-        <v>901</v>
+        <v>808</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>17026</v>
       </c>
       <c r="G2" t="n">
-        <v>3.51</v>
+        <v>28.03</v>
       </c>
       <c r="H2" t="n">
-        <v>15.47</v>
+        <v>7.71</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1070,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1080,34 +1117,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9496</v>
+        <v>5355</v>
       </c>
       <c r="C3" t="n">
-        <v>713</v>
+        <v>672</v>
       </c>
       <c r="D3" t="n">
-        <v>241</v>
+        <v>977</v>
       </c>
       <c r="E3" t="n">
-        <v>728</v>
+        <v>644</v>
       </c>
       <c r="F3" t="n">
-        <v>7814</v>
+        <v>3062</v>
       </c>
       <c r="G3" t="n">
-        <v>9.59</v>
+        <v>34.73</v>
       </c>
       <c r="H3" t="n">
-        <v>22.32</v>
+        <v>4.2</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1117,34 +1154,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13292</v>
+        <v>5210</v>
       </c>
       <c r="C4" t="n">
-        <v>359</v>
+        <v>843</v>
       </c>
       <c r="D4" t="n">
-        <v>231</v>
+        <v>154</v>
       </c>
       <c r="E4" t="n">
-        <v>158</v>
+        <v>2514</v>
       </c>
       <c r="F4" t="n">
-        <v>12544</v>
+        <v>1699</v>
       </c>
       <c r="G4" t="n">
-        <v>14.75</v>
+        <v>20.55</v>
       </c>
       <c r="H4" t="n">
-        <v>6.3</v>
+        <v>7.27</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1154,28 +1191,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22623</v>
+        <v>5842</v>
       </c>
       <c r="C5" t="n">
-        <v>1440</v>
+        <v>438</v>
       </c>
       <c r="D5" t="n">
-        <v>57</v>
+        <v>168</v>
       </c>
       <c r="E5" t="n">
-        <v>592</v>
+        <v>2642</v>
       </c>
       <c r="F5" t="n">
-        <v>20534</v>
+        <v>2594</v>
       </c>
       <c r="G5" t="n">
-        <v>15.63</v>
+        <v>2.12</v>
       </c>
       <c r="H5" t="n">
-        <v>5.03</v>
+        <v>1.39</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1191,25 +1228,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6889</v>
+        <v>12283</v>
       </c>
       <c r="C6" t="n">
-        <v>1401</v>
+        <v>614</v>
       </c>
       <c r="D6" t="n">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="E6" t="n">
-        <v>644</v>
+        <v>448</v>
       </c>
       <c r="F6" t="n">
-        <v>4657</v>
+        <v>11016</v>
       </c>
       <c r="G6" t="n">
-        <v>7.41</v>
+        <v>14.43</v>
       </c>
       <c r="H6" t="n">
-        <v>6.45</v>
+        <v>8.6</v>
       </c>
       <c r="I6" t="n">
         <v>8</v>
@@ -1218,7 +1255,7 @@
         <v>21</v>
       </c>
       <c r="K6" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1228,34 +1265,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16710</v>
+        <v>8676</v>
       </c>
       <c r="C7" t="n">
-        <v>1561</v>
+        <v>2038</v>
       </c>
       <c r="D7" t="n">
-        <v>442</v>
+        <v>127</v>
       </c>
       <c r="E7" t="n">
-        <v>2267</v>
+        <v>1051</v>
       </c>
       <c r="F7" t="n">
-        <v>12440</v>
+        <v>5460</v>
       </c>
       <c r="G7" t="n">
-        <v>21.45</v>
+        <v>17.36</v>
       </c>
       <c r="H7" t="n">
-        <v>5.41</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1265,34 +1302,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9668</v>
+        <v>15622</v>
       </c>
       <c r="C8" t="n">
-        <v>619</v>
+        <v>484</v>
       </c>
       <c r="D8" t="n">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="E8" t="n">
-        <v>1412</v>
+        <v>1101</v>
       </c>
       <c r="F8" t="n">
-        <v>7277</v>
+        <v>13587</v>
       </c>
       <c r="G8" t="n">
-        <v>11.11</v>
+        <v>24.42</v>
       </c>
       <c r="H8" t="n">
-        <v>4.32</v>
+        <v>8.19</v>
       </c>
       <c r="I8" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1302,25 +1339,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7934</v>
+        <v>14506</v>
       </c>
       <c r="C9" t="n">
-        <v>2615</v>
+        <v>690</v>
       </c>
       <c r="D9" t="n">
-        <v>314</v>
+        <v>253</v>
       </c>
       <c r="E9" t="n">
-        <v>867</v>
+        <v>577</v>
       </c>
       <c r="F9" t="n">
-        <v>4138</v>
+        <v>12986</v>
       </c>
       <c r="G9" t="n">
-        <v>9.06</v>
+        <v>3.93</v>
       </c>
       <c r="H9" t="n">
-        <v>6.66</v>
+        <v>16.82</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1335,35 +1372,35 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>owner_tipodecambio</t>
+          <t>owner_ticketing</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16183</v>
+        <v>1004</v>
       </c>
       <c r="C10" t="n">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="D10" t="n">
-        <v>32</v>
+        <v>213</v>
       </c>
       <c r="E10" t="n">
-        <v>223</v>
+        <v>586</v>
       </c>
       <c r="F10" t="n">
-        <v>15687</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>4.22</v>
+        <v>9.99</v>
       </c>
       <c r="H10" t="n">
-        <v>18.65</v>
+        <v>4.29</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>3</v>
@@ -1372,72 +1409,72 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>retail</t>
+          <t>owner_tipodecambio</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13223</v>
+        <v>7201</v>
       </c>
       <c r="C11" t="n">
-        <v>846</v>
+        <v>2024</v>
       </c>
       <c r="D11" t="n">
-        <v>344</v>
+        <v>66</v>
       </c>
       <c r="E11" t="n">
-        <v>1279</v>
+        <v>580</v>
       </c>
       <c r="F11" t="n">
-        <v>10753</v>
+        <v>4531</v>
       </c>
       <c r="G11" t="n">
-        <v>15.77</v>
+        <v>12.23</v>
       </c>
       <c r="H11" t="n">
-        <v>5.34</v>
+        <v>6.17</v>
       </c>
       <c r="I11" t="n">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>financial</t>
+          <t>retail</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>15231</v>
+        <v>7628</v>
       </c>
       <c r="C12" t="n">
-        <v>1027</v>
+        <v>892</v>
       </c>
       <c r="D12" t="n">
-        <v>92</v>
+        <v>236</v>
       </c>
       <c r="E12" t="n">
-        <v>486</v>
+        <v>1313</v>
       </c>
       <c r="F12" t="n">
-        <v>13626</v>
+        <v>5186</v>
       </c>
       <c r="G12" t="n">
-        <v>9.09</v>
+        <v>18.08</v>
       </c>
       <c r="H12" t="n">
-        <v>10.04</v>
+        <v>5.79</v>
       </c>
       <c r="I12" t="n">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="J12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1446,35 +1483,35 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>negocios</t>
+          <t>financial</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5082</v>
+        <v>8442</v>
       </c>
       <c r="C13" t="n">
-        <v>1899</v>
+        <v>1025</v>
       </c>
       <c r="D13" t="n">
-        <v>229</v>
+        <v>146</v>
       </c>
       <c r="E13" t="n">
-        <v>884</v>
+        <v>1223</v>
       </c>
       <c r="F13" t="n">
-        <v>2069</v>
+        <v>6047</v>
       </c>
       <c r="G13" t="n">
-        <v>6.28</v>
+        <v>9.59</v>
       </c>
       <c r="H13" t="n">
-        <v>11.06</v>
+        <v>5.39</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1483,37 +1520,74 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>negocios</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>16366</v>
+      </c>
+      <c r="C14" t="n">
+        <v>488</v>
+      </c>
+      <c r="D14" t="n">
+        <v>180</v>
+      </c>
+      <c r="E14" t="n">
+        <v>692</v>
+      </c>
+      <c r="F14" t="n">
+        <v>15006</v>
+      </c>
+      <c r="G14" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="H14" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>product cx</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>9496</v>
-      </c>
-      <c r="C14" t="n">
-        <v>713</v>
-      </c>
-      <c r="D14" t="n">
-        <v>241</v>
-      </c>
-      <c r="E14" t="n">
-        <v>728</v>
-      </c>
-      <c r="F14" t="n">
-        <v>7814</v>
-      </c>
-      <c r="G14" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="H14" t="n">
-        <v>22.32</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="B15" t="n">
+        <v>5355</v>
+      </c>
+      <c r="C15" t="n">
+        <v>672</v>
+      </c>
+      <c r="D15" t="n">
+        <v>977</v>
+      </c>
+      <c r="E15" t="n">
+        <v>644</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3062</v>
+      </c>
+      <c r="G15" t="n">
+        <v>34.73</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="J14" t="n">
-        <v>2</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J15" t="n">
+        <v>4</v>
+      </c>
+      <c r="K15" t="n">
         <v>0</v>
       </c>
     </row>

--- a/metrics/metricas_analysis.xlsx
+++ b/metrics/metricas_analysis.xlsx
@@ -1154,7 +1154,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5210</v>
+        <v>5163</v>
       </c>
       <c r="C4" t="n">
         <v>843</v>
@@ -1163,7 +1163,7 @@
         <v>154</v>
       </c>
       <c r="E4" t="n">
-        <v>2514</v>
+        <v>2467</v>
       </c>
       <c r="F4" t="n">
         <v>1699</v>
@@ -1339,10 +1339,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14506</v>
+        <v>14493</v>
       </c>
       <c r="C9" t="n">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="D9" t="n">
         <v>253</v>
@@ -1450,7 +1450,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7628</v>
+        <v>7616</v>
       </c>
       <c r="C12" t="n">
         <v>892</v>
@@ -1459,7 +1459,7 @@
         <v>236</v>
       </c>
       <c r="E12" t="n">
-        <v>1313</v>
+        <v>1301</v>
       </c>
       <c r="F12" t="n">
         <v>5186</v>
@@ -1524,10 +1524,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16366</v>
+        <v>16360</v>
       </c>
       <c r="C14" t="n">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="D14" t="n">
         <v>180</v>

--- a/metrics/metricas_analysis.xlsx
+++ b/metrics/metricas_analysis.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Noviembre" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Diciembre" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Diciembre" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enero" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,34 +486,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2230</v>
+        <v>17905</v>
       </c>
       <c r="C2" t="n">
-        <v>1184</v>
+        <v>213</v>
       </c>
       <c r="D2" t="n">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="E2" t="n">
-        <v>901</v>
+        <v>590</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>17026</v>
       </c>
       <c r="G2" t="n">
-        <v>3.51</v>
+        <v>23.55</v>
       </c>
       <c r="H2" t="n">
-        <v>15.49</v>
+        <v>8.24</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -523,34 +523,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9524</v>
+        <v>7147</v>
       </c>
       <c r="C3" t="n">
-        <v>734</v>
+        <v>2417</v>
       </c>
       <c r="D3" t="n">
-        <v>248</v>
+        <v>1382</v>
       </c>
       <c r="E3" t="n">
-        <v>728</v>
+        <v>435</v>
       </c>
       <c r="F3" t="n">
-        <v>7814</v>
+        <v>2913</v>
       </c>
       <c r="G3" t="n">
-        <v>9.59</v>
+        <v>12.31</v>
       </c>
       <c r="H3" t="n">
-        <v>22.32</v>
+        <v>5.25</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -560,34 +560,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13319</v>
+        <v>6237</v>
       </c>
       <c r="C4" t="n">
-        <v>386</v>
+        <v>726</v>
       </c>
       <c r="D4" t="n">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="E4" t="n">
-        <v>158</v>
+        <v>2093</v>
       </c>
       <c r="F4" t="n">
-        <v>12544</v>
+        <v>3261</v>
       </c>
       <c r="G4" t="n">
-        <v>14.75</v>
+        <v>16.93</v>
       </c>
       <c r="H4" t="n">
-        <v>6.3</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -597,28 +597,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22623</v>
+        <v>6274</v>
       </c>
       <c r="C5" t="n">
-        <v>1440</v>
+        <v>692</v>
       </c>
       <c r="D5" t="n">
-        <v>57</v>
+        <v>808</v>
       </c>
       <c r="E5" t="n">
-        <v>592</v>
+        <v>2180</v>
       </c>
       <c r="F5" t="n">
-        <v>20534</v>
+        <v>2594</v>
       </c>
       <c r="G5" t="n">
-        <v>15.63</v>
+        <v>22.88</v>
       </c>
       <c r="H5" t="n">
-        <v>5.03</v>
+        <v>1.08</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -634,31 +634,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6942</v>
+        <v>10867</v>
       </c>
       <c r="C6" t="n">
-        <v>1401</v>
+        <v>752</v>
       </c>
       <c r="D6" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E6" t="n">
-        <v>697</v>
+        <v>454</v>
       </c>
       <c r="F6" t="n">
-        <v>4657</v>
+        <v>9473</v>
       </c>
       <c r="G6" t="n">
-        <v>7.41</v>
+        <v>6.22</v>
       </c>
       <c r="H6" t="n">
-        <v>6.45</v>
+        <v>4.67</v>
       </c>
       <c r="I6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="K6" t="n">
         <v>11</v>
@@ -671,34 +671,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16799</v>
+        <v>9437</v>
       </c>
       <c r="C7" t="n">
-        <v>1561</v>
+        <v>1896</v>
       </c>
       <c r="D7" t="n">
-        <v>442</v>
+        <v>527</v>
       </c>
       <c r="E7" t="n">
-        <v>2267</v>
+        <v>1007</v>
       </c>
       <c r="F7" t="n">
-        <v>12529</v>
+        <v>6007</v>
       </c>
       <c r="G7" t="n">
-        <v>21.45</v>
+        <v>19.35</v>
       </c>
       <c r="H7" t="n">
-        <v>5.41</v>
+        <v>4.21</v>
       </c>
       <c r="I7" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J7" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -708,34 +708,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9681</v>
+        <v>15414</v>
       </c>
       <c r="C8" t="n">
-        <v>620</v>
+        <v>740</v>
       </c>
       <c r="D8" t="n">
-        <v>364</v>
+        <v>1054</v>
       </c>
       <c r="E8" t="n">
-        <v>1420</v>
+        <v>1479</v>
       </c>
       <c r="F8" t="n">
-        <v>7277</v>
+        <v>12141</v>
       </c>
       <c r="G8" t="n">
-        <v>8.880000000000001</v>
+        <v>22.39</v>
       </c>
       <c r="H8" t="n">
-        <v>3.53</v>
+        <v>7.27</v>
       </c>
       <c r="I8" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -745,25 +745,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7934</v>
+        <v>15688</v>
       </c>
       <c r="C9" t="n">
-        <v>2615</v>
+        <v>1366</v>
       </c>
       <c r="D9" t="n">
-        <v>314</v>
+        <v>163</v>
       </c>
       <c r="E9" t="n">
-        <v>867</v>
+        <v>1173</v>
       </c>
       <c r="F9" t="n">
-        <v>4138</v>
+        <v>12986</v>
       </c>
       <c r="G9" t="n">
-        <v>9.06</v>
+        <v>4.4</v>
       </c>
       <c r="H9" t="n">
-        <v>6.66</v>
+        <v>19.83</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -782,34 +782,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1415</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>307</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>948</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>7.89</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>1.68</v>
+        <v>3.97</v>
       </c>
       <c r="I10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -819,34 +819,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16183</v>
+        <v>6788</v>
       </c>
       <c r="C11" t="n">
-        <v>241</v>
+        <v>1708</v>
       </c>
       <c r="D11" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="E11" t="n">
-        <v>223</v>
+        <v>490</v>
       </c>
       <c r="F11" t="n">
-        <v>15687</v>
+        <v>4531</v>
       </c>
       <c r="G11" t="n">
-        <v>4.21</v>
+        <v>14.54</v>
       </c>
       <c r="H11" t="n">
-        <v>18.63</v>
+        <v>6.3</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -856,31 +856,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9949</v>
+        <v>8125</v>
       </c>
       <c r="C12" t="n">
-        <v>641</v>
+        <v>917</v>
       </c>
       <c r="D12" t="n">
-        <v>259</v>
+        <v>474</v>
       </c>
       <c r="E12" t="n">
-        <v>961</v>
+        <v>1381</v>
       </c>
       <c r="F12" t="n">
-        <v>8087</v>
+        <v>5352</v>
       </c>
       <c r="G12" t="n">
-        <v>13.24</v>
+        <v>16.87</v>
       </c>
       <c r="H12" t="n">
-        <v>4.23</v>
+        <v>6.35</v>
       </c>
       <c r="I12" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15249</v>
+        <v>7976</v>
       </c>
       <c r="C13" t="n">
-        <v>1027</v>
+        <v>1050</v>
       </c>
       <c r="D13" t="n">
-        <v>92</v>
+        <v>351</v>
       </c>
       <c r="E13" t="n">
-        <v>504</v>
+        <v>1041</v>
       </c>
       <c r="F13" t="n">
-        <v>13626</v>
+        <v>5532</v>
       </c>
       <c r="G13" t="n">
-        <v>9.08</v>
+        <v>14.55</v>
       </c>
       <c r="H13" t="n">
-        <v>10.04</v>
+        <v>4.01</v>
       </c>
       <c r="I13" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J13" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -930,31 +930,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5082</v>
+        <v>16796</v>
       </c>
       <c r="C14" t="n">
-        <v>1899</v>
+        <v>789</v>
       </c>
       <c r="D14" t="n">
-        <v>229</v>
+        <v>119</v>
       </c>
       <c r="E14" t="n">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="F14" t="n">
-        <v>2069</v>
+        <v>15006</v>
       </c>
       <c r="G14" t="n">
-        <v>6.28</v>
+        <v>13.98</v>
       </c>
       <c r="H14" t="n">
-        <v>11.07</v>
+        <v>14.02</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -967,31 +967,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9524</v>
+        <v>7147</v>
       </c>
       <c r="C15" t="n">
-        <v>734</v>
+        <v>2417</v>
       </c>
       <c r="D15" t="n">
-        <v>248</v>
+        <v>1382</v>
       </c>
       <c r="E15" t="n">
-        <v>728</v>
+        <v>435</v>
       </c>
       <c r="F15" t="n">
-        <v>7814</v>
+        <v>2913</v>
       </c>
       <c r="G15" t="n">
-        <v>9.59</v>
+        <v>12.31</v>
       </c>
       <c r="H15" t="n">
-        <v>22.32</v>
+        <v>5.25</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1080,25 +1080,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18227</v>
+        <v>1493</v>
       </c>
       <c r="C2" t="n">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="D2" t="n">
-        <v>107</v>
+        <v>679</v>
       </c>
       <c r="E2" t="n">
-        <v>808</v>
+        <v>540</v>
       </c>
       <c r="F2" t="n">
-        <v>17026</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>28.03</v>
+        <v>6.1</v>
       </c>
       <c r="H2" t="n">
-        <v>7.71</v>
+        <v>6.19</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1117,34 +1117,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5355</v>
+        <v>12456</v>
       </c>
       <c r="C3" t="n">
-        <v>672</v>
+        <v>1428</v>
       </c>
       <c r="D3" t="n">
-        <v>977</v>
+        <v>869</v>
       </c>
       <c r="E3" t="n">
-        <v>644</v>
+        <v>524</v>
       </c>
       <c r="F3" t="n">
-        <v>3062</v>
+        <v>9635</v>
       </c>
       <c r="G3" t="n">
-        <v>34.73</v>
+        <v>12.19</v>
       </c>
       <c r="H3" t="n">
-        <v>4.2</v>
+        <v>1.37</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1154,34 +1154,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5163</v>
+        <v>6420</v>
       </c>
       <c r="C4" t="n">
-        <v>843</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>154</v>
+        <v>637</v>
       </c>
       <c r="E4" t="n">
-        <v>2467</v>
+        <v>415</v>
       </c>
       <c r="F4" t="n">
-        <v>1699</v>
+        <v>5361</v>
       </c>
       <c r="G4" t="n">
-        <v>20.55</v>
+        <v>2.84</v>
       </c>
       <c r="H4" t="n">
-        <v>7.27</v>
+        <v>17.57</v>
       </c>
       <c r="I4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1191,34 +1191,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5842</v>
+        <v>20264</v>
       </c>
       <c r="C5" t="n">
-        <v>438</v>
+        <v>859</v>
       </c>
       <c r="D5" t="n">
-        <v>168</v>
+        <v>961</v>
       </c>
       <c r="E5" t="n">
-        <v>2642</v>
+        <v>1639</v>
       </c>
       <c r="F5" t="n">
-        <v>2594</v>
+        <v>16805</v>
       </c>
       <c r="G5" t="n">
-        <v>2.12</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>1.39</v>
+        <v>2.68</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1228,34 +1228,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12283</v>
+        <v>10727</v>
       </c>
       <c r="C6" t="n">
-        <v>614</v>
+        <v>363</v>
       </c>
       <c r="D6" t="n">
-        <v>205</v>
+        <v>266</v>
       </c>
       <c r="E6" t="n">
-        <v>448</v>
+        <v>740</v>
       </c>
       <c r="F6" t="n">
-        <v>11016</v>
+        <v>9358</v>
       </c>
       <c r="G6" t="n">
-        <v>14.43</v>
+        <v>12.06</v>
       </c>
       <c r="H6" t="n">
-        <v>8.6</v>
+        <v>6.47</v>
       </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1265,34 +1265,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8676</v>
+        <v>10293</v>
       </c>
       <c r="C7" t="n">
-        <v>2038</v>
+        <v>1849</v>
       </c>
       <c r="D7" t="n">
-        <v>127</v>
+        <v>235</v>
       </c>
       <c r="E7" t="n">
-        <v>1051</v>
+        <v>1076</v>
       </c>
       <c r="F7" t="n">
-        <v>5460</v>
+        <v>7133</v>
       </c>
       <c r="G7" t="n">
-        <v>17.36</v>
+        <v>26.45</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>5.81</v>
       </c>
       <c r="I7" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1302,31 +1302,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15622</v>
+        <v>21999</v>
       </c>
       <c r="C8" t="n">
-        <v>484</v>
+        <v>1358</v>
       </c>
       <c r="D8" t="n">
-        <v>450</v>
+        <v>1318</v>
       </c>
       <c r="E8" t="n">
-        <v>1101</v>
+        <v>3432</v>
       </c>
       <c r="F8" t="n">
-        <v>13587</v>
+        <v>15891</v>
       </c>
       <c r="G8" t="n">
-        <v>24.42</v>
+        <v>16.17</v>
       </c>
       <c r="H8" t="n">
-        <v>8.19</v>
+        <v>2.14</v>
       </c>
       <c r="I8" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K8" t="n">
         <v>9</v>
@@ -1339,25 +1339,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14493</v>
+        <v>17162</v>
       </c>
       <c r="C9" t="n">
-        <v>677</v>
+        <v>1300</v>
       </c>
       <c r="D9" t="n">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="E9" t="n">
-        <v>577</v>
+        <v>1185</v>
       </c>
       <c r="F9" t="n">
-        <v>12986</v>
+        <v>14446</v>
       </c>
       <c r="G9" t="n">
-        <v>3.93</v>
+        <v>18.88</v>
       </c>
       <c r="H9" t="n">
-        <v>16.82</v>
+        <v>13.56</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1376,34 +1376,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1004</v>
+        <v>7054</v>
       </c>
       <c r="C10" t="n">
-        <v>205</v>
+        <v>3612</v>
       </c>
       <c r="D10" t="n">
-        <v>213</v>
+        <v>485</v>
       </c>
       <c r="E10" t="n">
-        <v>586</v>
+        <v>2957</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>9.99</v>
+        <v>10.79</v>
       </c>
       <c r="H10" t="n">
-        <v>4.29</v>
+        <v>4.2</v>
       </c>
       <c r="I10" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1413,34 +1413,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7201</v>
+        <v>14724</v>
       </c>
       <c r="C11" t="n">
-        <v>2024</v>
+        <v>329</v>
       </c>
       <c r="D11" t="n">
-        <v>66</v>
+        <v>228</v>
       </c>
       <c r="E11" t="n">
-        <v>580</v>
+        <v>145</v>
       </c>
       <c r="F11" t="n">
-        <v>4531</v>
+        <v>14022</v>
       </c>
       <c r="G11" t="n">
-        <v>12.23</v>
+        <v>18.31</v>
       </c>
       <c r="H11" t="n">
-        <v>6.17</v>
+        <v>3.82</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1450,31 +1450,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7616</v>
+        <v>11441</v>
       </c>
       <c r="C12" t="n">
-        <v>892</v>
+        <v>1706</v>
       </c>
       <c r="D12" t="n">
-        <v>236</v>
+        <v>668</v>
       </c>
       <c r="E12" t="n">
-        <v>1301</v>
+        <v>1970</v>
       </c>
       <c r="F12" t="n">
-        <v>5186</v>
+        <v>7096</v>
       </c>
       <c r="G12" t="n">
-        <v>18.08</v>
+        <v>14.06</v>
       </c>
       <c r="H12" t="n">
-        <v>5.79</v>
+        <v>7.43</v>
       </c>
       <c r="I12" t="n">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="J12" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1487,31 +1487,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8442</v>
+        <v>15238</v>
       </c>
       <c r="C13" t="n">
-        <v>1025</v>
+        <v>517</v>
       </c>
       <c r="D13" t="n">
-        <v>146</v>
+        <v>485</v>
       </c>
       <c r="E13" t="n">
-        <v>1223</v>
+        <v>841</v>
       </c>
       <c r="F13" t="n">
-        <v>6047</v>
+        <v>13395</v>
       </c>
       <c r="G13" t="n">
-        <v>9.59</v>
+        <v>12.84</v>
       </c>
       <c r="H13" t="n">
-        <v>5.39</v>
+        <v>4.32</v>
       </c>
       <c r="I13" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1524,25 +1524,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16360</v>
+        <v>9327</v>
       </c>
       <c r="C14" t="n">
-        <v>481</v>
+        <v>787</v>
       </c>
       <c r="D14" t="n">
-        <v>180</v>
+        <v>455</v>
       </c>
       <c r="E14" t="n">
-        <v>692</v>
+        <v>862</v>
       </c>
       <c r="F14" t="n">
-        <v>15006</v>
+        <v>7223</v>
       </c>
       <c r="G14" t="n">
-        <v>15.98</v>
+        <v>12.49</v>
       </c>
       <c r="H14" t="n">
-        <v>12.26</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1561,31 +1561,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5355</v>
+        <v>12456</v>
       </c>
       <c r="C15" t="n">
-        <v>672</v>
+        <v>1428</v>
       </c>
       <c r="D15" t="n">
-        <v>977</v>
+        <v>869</v>
       </c>
       <c r="E15" t="n">
-        <v>644</v>
+        <v>524</v>
       </c>
       <c r="F15" t="n">
-        <v>3062</v>
+        <v>9635</v>
       </c>
       <c r="G15" t="n">
-        <v>34.73</v>
+        <v>12.19</v>
       </c>
       <c r="H15" t="n">
-        <v>4.21</v>
+        <v>1.37</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>

--- a/metrics/metricas_analysis.xlsx
+++ b/metrics/metricas_analysis.xlsx
@@ -1080,25 +1080,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1493</v>
+        <v>1389</v>
       </c>
       <c r="C2" t="n">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="D2" t="n">
-        <v>679</v>
+        <v>623</v>
       </c>
       <c r="E2" t="n">
-        <v>540</v>
+        <v>457</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.1</v>
+        <v>5.47</v>
       </c>
       <c r="H2" t="n">
-        <v>6.19</v>
+        <v>6.5</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1117,25 +1117,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12456</v>
+        <v>12618</v>
       </c>
       <c r="C3" t="n">
-        <v>1428</v>
+        <v>1875</v>
       </c>
       <c r="D3" t="n">
-        <v>869</v>
+        <v>697</v>
       </c>
       <c r="E3" t="n">
-        <v>524</v>
+        <v>411</v>
       </c>
       <c r="F3" t="n">
         <v>9635</v>
       </c>
       <c r="G3" t="n">
-        <v>12.19</v>
+        <v>16.63</v>
       </c>
       <c r="H3" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
@@ -1154,25 +1154,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6420</v>
+        <v>6932</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>637</v>
+        <v>565</v>
       </c>
       <c r="E4" t="n">
-        <v>415</v>
+        <v>384</v>
       </c>
       <c r="F4" t="n">
-        <v>5361</v>
+        <v>5975</v>
       </c>
       <c r="G4" t="n">
-        <v>2.84</v>
+        <v>2.62</v>
       </c>
       <c r="H4" t="n">
-        <v>17.57</v>
+        <v>15.45</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1191,13 +1191,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20264</v>
+        <v>20256</v>
       </c>
       <c r="C5" t="n">
-        <v>859</v>
+        <v>890</v>
       </c>
       <c r="D5" t="n">
-        <v>961</v>
+        <v>922</v>
       </c>
       <c r="E5" t="n">
         <v>1639</v>
@@ -1206,10 +1206,10 @@
         <v>16805</v>
       </c>
       <c r="G5" t="n">
-        <v>8.140000000000001</v>
+        <v>8.58</v>
       </c>
       <c r="H5" t="n">
-        <v>2.68</v>
+        <v>3.36</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -1228,25 +1228,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10727</v>
+        <v>10843</v>
       </c>
       <c r="C6" t="n">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="D6" t="n">
-        <v>266</v>
+        <v>359</v>
       </c>
       <c r="E6" t="n">
-        <v>740</v>
+        <v>777</v>
       </c>
       <c r="F6" t="n">
         <v>9358</v>
       </c>
       <c r="G6" t="n">
-        <v>12.06</v>
+        <v>11.7</v>
       </c>
       <c r="H6" t="n">
-        <v>6.47</v>
+        <v>6.23</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1265,25 +1265,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10293</v>
+        <v>10484</v>
       </c>
       <c r="C7" t="n">
-        <v>1849</v>
+        <v>2042</v>
       </c>
       <c r="D7" t="n">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="E7" t="n">
-        <v>1076</v>
+        <v>1068</v>
       </c>
       <c r="F7" t="n">
         <v>7133</v>
       </c>
       <c r="G7" t="n">
-        <v>26.45</v>
+        <v>26.97</v>
       </c>
       <c r="H7" t="n">
-        <v>5.81</v>
+        <v>5.34</v>
       </c>
       <c r="I7" t="n">
         <v>10</v>
@@ -1302,25 +1302,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21999</v>
+        <v>21016</v>
       </c>
       <c r="C8" t="n">
-        <v>1358</v>
+        <v>1119</v>
       </c>
       <c r="D8" t="n">
-        <v>1318</v>
+        <v>1137</v>
       </c>
       <c r="E8" t="n">
-        <v>3432</v>
+        <v>2869</v>
       </c>
       <c r="F8" t="n">
         <v>15891</v>
       </c>
       <c r="G8" t="n">
-        <v>16.17</v>
+        <v>14.55</v>
       </c>
       <c r="H8" t="n">
-        <v>2.14</v>
+        <v>2.27</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -1339,25 +1339,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17162</v>
+        <v>17086</v>
       </c>
       <c r="C9" t="n">
-        <v>1300</v>
+        <v>1242</v>
       </c>
       <c r="D9" t="n">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="E9" t="n">
-        <v>1185</v>
+        <v>1161</v>
       </c>
       <c r="F9" t="n">
         <v>14446</v>
       </c>
       <c r="G9" t="n">
-        <v>18.88</v>
+        <v>17.53</v>
       </c>
       <c r="H9" t="n">
-        <v>13.56</v>
+        <v>14.42</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1376,25 +1376,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7054</v>
+        <v>6210</v>
       </c>
       <c r="C10" t="n">
-        <v>3612</v>
+        <v>3248</v>
       </c>
       <c r="D10" t="n">
-        <v>485</v>
+        <v>403</v>
       </c>
       <c r="E10" t="n">
-        <v>2957</v>
+        <v>2559</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>10.79</v>
+        <v>10.09</v>
       </c>
       <c r="H10" t="n">
-        <v>4.2</v>
+        <v>4.89</v>
       </c>
       <c r="I10" t="n">
         <v>5</v>
@@ -1413,25 +1413,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14724</v>
+        <v>14837</v>
       </c>
       <c r="C11" t="n">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="D11" t="n">
-        <v>228</v>
+        <v>299</v>
       </c>
       <c r="E11" t="n">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="F11" t="n">
         <v>14022</v>
       </c>
       <c r="G11" t="n">
-        <v>18.31</v>
+        <v>17.93</v>
       </c>
       <c r="H11" t="n">
-        <v>3.82</v>
+        <v>3.96</v>
       </c>
       <c r="I11" t="n">
         <v>2</v>
@@ -1450,25 +1450,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11441</v>
+        <v>11160</v>
       </c>
       <c r="C12" t="n">
-        <v>1706</v>
+        <v>1604</v>
       </c>
       <c r="D12" t="n">
-        <v>668</v>
+        <v>586</v>
       </c>
       <c r="E12" t="n">
-        <v>1970</v>
+        <v>1720</v>
       </c>
       <c r="F12" t="n">
-        <v>7096</v>
+        <v>7249</v>
       </c>
       <c r="G12" t="n">
-        <v>14.06</v>
+        <v>13.56</v>
       </c>
       <c r="H12" t="n">
-        <v>7.43</v>
+        <v>6.98</v>
       </c>
       <c r="I12" t="n">
         <v>16</v>
@@ -1487,25 +1487,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15238</v>
+        <v>15312</v>
       </c>
       <c r="C13" t="n">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D13" t="n">
-        <v>485</v>
+        <v>526</v>
       </c>
       <c r="E13" t="n">
-        <v>841</v>
+        <v>876</v>
       </c>
       <c r="F13" t="n">
         <v>13395</v>
       </c>
       <c r="G13" t="n">
-        <v>12.84</v>
+        <v>12.74</v>
       </c>
       <c r="H13" t="n">
-        <v>4.32</v>
+        <v>4.51</v>
       </c>
       <c r="I13" t="n">
         <v>2</v>
@@ -1524,25 +1524,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9327</v>
+        <v>9237</v>
       </c>
       <c r="C14" t="n">
-        <v>787</v>
+        <v>775</v>
       </c>
       <c r="D14" t="n">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="E14" t="n">
-        <v>862</v>
+        <v>809</v>
       </c>
       <c r="F14" t="n">
         <v>7223</v>
       </c>
       <c r="G14" t="n">
-        <v>12.49</v>
+        <v>11.5</v>
       </c>
       <c r="H14" t="n">
-        <v>9.880000000000001</v>
+        <v>10.45</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1561,25 +1561,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>12456</v>
+        <v>12618</v>
       </c>
       <c r="C15" t="n">
-        <v>1428</v>
+        <v>1875</v>
       </c>
       <c r="D15" t="n">
-        <v>869</v>
+        <v>697</v>
       </c>
       <c r="E15" t="n">
-        <v>524</v>
+        <v>411</v>
       </c>
       <c r="F15" t="n">
         <v>9635</v>
       </c>
       <c r="G15" t="n">
-        <v>12.19</v>
+        <v>16.63</v>
       </c>
       <c r="H15" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="I15" t="n">
         <v>2</v>

--- a/metrics/metricas_analysis.xlsx
+++ b/metrics/metricas_analysis.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Diciembre" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enero" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enero" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Febrero" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,34 +486,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17905</v>
+        <v>1425</v>
       </c>
       <c r="C2" t="n">
-        <v>213</v>
+        <v>302</v>
       </c>
       <c r="D2" t="n">
-        <v>76</v>
+        <v>666</v>
       </c>
       <c r="E2" t="n">
-        <v>590</v>
+        <v>457</v>
       </c>
       <c r="F2" t="n">
-        <v>17026</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>23.55</v>
+        <v>5.47</v>
       </c>
       <c r="H2" t="n">
-        <v>8.24</v>
+        <v>6.5</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -523,34 +523,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7147</v>
+        <v>12618</v>
       </c>
       <c r="C3" t="n">
-        <v>2417</v>
+        <v>1875</v>
       </c>
       <c r="D3" t="n">
-        <v>1382</v>
+        <v>697</v>
       </c>
       <c r="E3" t="n">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="F3" t="n">
-        <v>2913</v>
+        <v>9635</v>
       </c>
       <c r="G3" t="n">
-        <v>12.31</v>
+        <v>20.27</v>
       </c>
       <c r="H3" t="n">
-        <v>5.25</v>
+        <v>1.1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -560,34 +560,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6237</v>
+        <v>6932</v>
       </c>
       <c r="C4" t="n">
-        <v>726</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>157</v>
+        <v>565</v>
       </c>
       <c r="E4" t="n">
-        <v>2093</v>
+        <v>384</v>
       </c>
       <c r="F4" t="n">
-        <v>3261</v>
+        <v>5975</v>
       </c>
       <c r="G4" t="n">
-        <v>16.93</v>
+        <v>2.62</v>
       </c>
       <c r="H4" t="n">
-        <v>9.970000000000001</v>
+        <v>15.45</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -597,34 +597,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6274</v>
+        <v>20256</v>
       </c>
       <c r="C5" t="n">
-        <v>692</v>
+        <v>890</v>
       </c>
       <c r="D5" t="n">
-        <v>808</v>
+        <v>922</v>
       </c>
       <c r="E5" t="n">
-        <v>2180</v>
+        <v>1639</v>
       </c>
       <c r="F5" t="n">
-        <v>2594</v>
+        <v>16805</v>
       </c>
       <c r="G5" t="n">
-        <v>22.88</v>
+        <v>8.58</v>
       </c>
       <c r="H5" t="n">
-        <v>1.08</v>
+        <v>3.36</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -634,34 +634,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10867</v>
+        <v>10843</v>
       </c>
       <c r="C6" t="n">
-        <v>752</v>
+        <v>349</v>
       </c>
       <c r="D6" t="n">
-        <v>188</v>
+        <v>359</v>
       </c>
       <c r="E6" t="n">
-        <v>454</v>
+        <v>777</v>
       </c>
       <c r="F6" t="n">
-        <v>9473</v>
+        <v>9358</v>
       </c>
       <c r="G6" t="n">
-        <v>6.22</v>
+        <v>11.7</v>
       </c>
       <c r="H6" t="n">
-        <v>4.67</v>
+        <v>6.23</v>
       </c>
       <c r="I6" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -671,34 +671,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9437</v>
+        <v>10390</v>
       </c>
       <c r="C7" t="n">
-        <v>1896</v>
+        <v>1857</v>
       </c>
       <c r="D7" t="n">
-        <v>527</v>
+        <v>286</v>
       </c>
       <c r="E7" t="n">
-        <v>1007</v>
+        <v>1114</v>
       </c>
       <c r="F7" t="n">
-        <v>6007</v>
+        <v>7133</v>
       </c>
       <c r="G7" t="n">
-        <v>19.35</v>
+        <v>26.97</v>
       </c>
       <c r="H7" t="n">
-        <v>4.21</v>
+        <v>5.34</v>
       </c>
       <c r="I7" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="K7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -708,34 +708,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15414</v>
+        <v>20234</v>
       </c>
       <c r="C8" t="n">
-        <v>740</v>
+        <v>1174</v>
       </c>
       <c r="D8" t="n">
-        <v>1054</v>
+        <v>514</v>
       </c>
       <c r="E8" t="n">
-        <v>1479</v>
+        <v>2507</v>
       </c>
       <c r="F8" t="n">
-        <v>12141</v>
+        <v>16039</v>
       </c>
       <c r="G8" t="n">
-        <v>22.39</v>
+        <v>14.49</v>
       </c>
       <c r="H8" t="n">
-        <v>7.27</v>
+        <v>2.28</v>
       </c>
       <c r="I8" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K8" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -745,25 +745,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15688</v>
+        <v>17098</v>
       </c>
       <c r="C9" t="n">
-        <v>1366</v>
+        <v>1228</v>
       </c>
       <c r="D9" t="n">
-        <v>163</v>
+        <v>263</v>
       </c>
       <c r="E9" t="n">
-        <v>1173</v>
+        <v>1161</v>
       </c>
       <c r="F9" t="n">
-        <v>12986</v>
+        <v>14446</v>
       </c>
       <c r="G9" t="n">
-        <v>4.4</v>
+        <v>17.53</v>
       </c>
       <c r="H9" t="n">
-        <v>19.83</v>
+        <v>14.42</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -782,34 +782,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1415</v>
+        <v>6210</v>
       </c>
       <c r="C10" t="n">
-        <v>307</v>
+        <v>3248</v>
       </c>
       <c r="D10" t="n">
-        <v>160</v>
+        <v>403</v>
       </c>
       <c r="E10" t="n">
-        <v>948</v>
+        <v>2559</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>8.800000000000001</v>
+        <v>10.09</v>
       </c>
       <c r="H10" t="n">
-        <v>3.97</v>
+        <v>4.89</v>
       </c>
       <c r="I10" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
+        <v>10</v>
+      </c>
+      <c r="K10" t="n">
         <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -819,34 +819,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6788</v>
+        <v>14837</v>
       </c>
       <c r="C11" t="n">
-        <v>1708</v>
+        <v>303</v>
       </c>
       <c r="D11" t="n">
-        <v>59</v>
+        <v>299</v>
       </c>
       <c r="E11" t="n">
-        <v>490</v>
+        <v>213</v>
       </c>
       <c r="F11" t="n">
-        <v>4531</v>
+        <v>14022</v>
       </c>
       <c r="G11" t="n">
-        <v>14.54</v>
+        <v>17.82</v>
       </c>
       <c r="H11" t="n">
-        <v>6.3</v>
+        <v>3.97</v>
       </c>
       <c r="I11" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -856,31 +856,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8125</v>
+        <v>10941</v>
       </c>
       <c r="C12" t="n">
-        <v>917</v>
+        <v>1571</v>
       </c>
       <c r="D12" t="n">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="E12" t="n">
-        <v>1381</v>
+        <v>1641</v>
       </c>
       <c r="F12" t="n">
-        <v>5352</v>
+        <v>7286</v>
       </c>
       <c r="G12" t="n">
-        <v>16.87</v>
+        <v>13.54</v>
       </c>
       <c r="H12" t="n">
-        <v>6.35</v>
+        <v>6.99</v>
       </c>
       <c r="I12" t="n">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="J12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7976</v>
+        <v>15312</v>
       </c>
       <c r="C13" t="n">
-        <v>1050</v>
+        <v>514</v>
       </c>
       <c r="D13" t="n">
-        <v>351</v>
+        <v>526</v>
       </c>
       <c r="E13" t="n">
-        <v>1041</v>
+        <v>876</v>
       </c>
       <c r="F13" t="n">
-        <v>5532</v>
+        <v>13395</v>
       </c>
       <c r="G13" t="n">
-        <v>14.55</v>
+        <v>12.7</v>
       </c>
       <c r="H13" t="n">
-        <v>4.01</v>
+        <v>4.51</v>
       </c>
       <c r="I13" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -930,31 +930,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16796</v>
+        <v>9261</v>
       </c>
       <c r="C14" t="n">
-        <v>789</v>
+        <v>765</v>
       </c>
       <c r="D14" t="n">
-        <v>119</v>
+        <v>464</v>
       </c>
       <c r="E14" t="n">
-        <v>881</v>
+        <v>809</v>
       </c>
       <c r="F14" t="n">
-        <v>15006</v>
+        <v>7223</v>
       </c>
       <c r="G14" t="n">
-        <v>13.98</v>
+        <v>11.5</v>
       </c>
       <c r="H14" t="n">
-        <v>14.02</v>
+        <v>10.45</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -967,31 +967,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7147</v>
+        <v>12618</v>
       </c>
       <c r="C15" t="n">
-        <v>2417</v>
+        <v>1875</v>
       </c>
       <c r="D15" t="n">
-        <v>1382</v>
+        <v>697</v>
       </c>
       <c r="E15" t="n">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="F15" t="n">
-        <v>2913</v>
+        <v>9635</v>
       </c>
       <c r="G15" t="n">
-        <v>12.31</v>
+        <v>20.27</v>
       </c>
       <c r="H15" t="n">
-        <v>5.25</v>
+        <v>1.1</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1080,25 +1080,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1389</v>
+        <v>3107</v>
       </c>
       <c r="C2" t="n">
-        <v>309</v>
+        <v>757</v>
       </c>
       <c r="D2" t="n">
-        <v>623</v>
+        <v>118</v>
       </c>
       <c r="E2" t="n">
-        <v>457</v>
+        <v>2232</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.47</v>
+        <v>6.19</v>
       </c>
       <c r="H2" t="n">
-        <v>6.5</v>
+        <v>11.84</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1117,34 +1117,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12618</v>
+        <v>15656</v>
       </c>
       <c r="C3" t="n">
-        <v>1875</v>
+        <v>3847</v>
       </c>
       <c r="D3" t="n">
-        <v>697</v>
+        <v>338</v>
       </c>
       <c r="E3" t="n">
-        <v>411</v>
+        <v>2481</v>
       </c>
       <c r="F3" t="n">
-        <v>9635</v>
+        <v>8990</v>
       </c>
       <c r="G3" t="n">
-        <v>16.63</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1.39</v>
+        <v>2.59</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1154,34 +1154,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6932</v>
+        <v>7775</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>825</v>
       </c>
       <c r="D4" t="n">
-        <v>565</v>
+        <v>26</v>
       </c>
       <c r="E4" t="n">
-        <v>384</v>
+        <v>940</v>
       </c>
       <c r="F4" t="n">
-        <v>5975</v>
+        <v>5984</v>
       </c>
       <c r="G4" t="n">
-        <v>2.62</v>
+        <v>5.01</v>
       </c>
       <c r="H4" t="n">
-        <v>15.45</v>
+        <v>3.15</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1191,25 +1191,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20256</v>
+        <v>4783</v>
       </c>
       <c r="C5" t="n">
-        <v>890</v>
+        <v>201</v>
       </c>
       <c r="D5" t="n">
-        <v>922</v>
+        <v>1612</v>
       </c>
       <c r="E5" t="n">
-        <v>1639</v>
+        <v>2970</v>
       </c>
       <c r="F5" t="n">
-        <v>16805</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>8.58</v>
+        <v>20.65</v>
       </c>
       <c r="H5" t="n">
-        <v>3.36</v>
+        <v>22.56</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1228,34 +1228,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10843</v>
+        <v>12059</v>
       </c>
       <c r="C6" t="n">
-        <v>349</v>
+        <v>203</v>
       </c>
       <c r="D6" t="n">
-        <v>359</v>
+        <v>140</v>
       </c>
       <c r="E6" t="n">
-        <v>777</v>
+        <v>1726</v>
       </c>
       <c r="F6" t="n">
-        <v>9358</v>
+        <v>9990</v>
       </c>
       <c r="G6" t="n">
-        <v>11.7</v>
+        <v>2.48</v>
       </c>
       <c r="H6" t="n">
-        <v>6.23</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1265,34 +1265,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10484</v>
+        <v>10700</v>
       </c>
       <c r="C7" t="n">
-        <v>2042</v>
+        <v>1823</v>
       </c>
       <c r="D7" t="n">
-        <v>241</v>
+        <v>612</v>
       </c>
       <c r="E7" t="n">
-        <v>1068</v>
+        <v>634</v>
       </c>
       <c r="F7" t="n">
-        <v>7133</v>
+        <v>7631</v>
       </c>
       <c r="G7" t="n">
-        <v>26.97</v>
+        <v>13.23</v>
       </c>
       <c r="H7" t="n">
-        <v>5.34</v>
+        <v>6.22</v>
       </c>
       <c r="I7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J7" t="n">
+        <v>11</v>
+      </c>
+      <c r="K7" t="n">
         <v>8</v>
-      </c>
-      <c r="K7" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1302,34 +1302,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21016</v>
+        <v>13683</v>
       </c>
       <c r="C8" t="n">
-        <v>1119</v>
+        <v>1964</v>
       </c>
       <c r="D8" t="n">
-        <v>1137</v>
+        <v>548</v>
       </c>
       <c r="E8" t="n">
-        <v>2869</v>
+        <v>1258</v>
       </c>
       <c r="F8" t="n">
-        <v>15891</v>
+        <v>9913</v>
       </c>
       <c r="G8" t="n">
-        <v>14.55</v>
+        <v>9.06</v>
       </c>
       <c r="H8" t="n">
-        <v>2.27</v>
+        <v>16.14</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
         <v>9</v>
       </c>
       <c r="K8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1339,25 +1339,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17086</v>
+        <v>17182</v>
       </c>
       <c r="C9" t="n">
-        <v>1242</v>
+        <v>155</v>
       </c>
       <c r="D9" t="n">
-        <v>237</v>
+        <v>112</v>
       </c>
       <c r="E9" t="n">
-        <v>1161</v>
+        <v>767</v>
       </c>
       <c r="F9" t="n">
-        <v>14446</v>
+        <v>16148</v>
       </c>
       <c r="G9" t="n">
-        <v>17.53</v>
+        <v>15.59</v>
       </c>
       <c r="H9" t="n">
-        <v>14.42</v>
+        <v>7.35</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1376,34 +1376,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6210</v>
+        <v>3347</v>
       </c>
       <c r="C10" t="n">
-        <v>3248</v>
+        <v>1145</v>
       </c>
       <c r="D10" t="n">
-        <v>403</v>
+        <v>606</v>
       </c>
       <c r="E10" t="n">
-        <v>2559</v>
+        <v>1596</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>10.09</v>
+        <v>3.66</v>
       </c>
       <c r="H10" t="n">
-        <v>4.89</v>
+        <v>1.62</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1413,34 +1413,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14837</v>
+        <v>8636</v>
       </c>
       <c r="C11" t="n">
-        <v>303</v>
+        <v>532</v>
       </c>
       <c r="D11" t="n">
-        <v>299</v>
+        <v>94</v>
       </c>
       <c r="E11" t="n">
-        <v>213</v>
+        <v>513</v>
       </c>
       <c r="F11" t="n">
-        <v>14022</v>
+        <v>7497</v>
       </c>
       <c r="G11" t="n">
-        <v>17.93</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>3.96</v>
+        <v>5.19</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1450,31 +1450,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11160</v>
+        <v>8876</v>
       </c>
       <c r="C12" t="n">
-        <v>1604</v>
+        <v>1439</v>
       </c>
       <c r="D12" t="n">
-        <v>586</v>
+        <v>448</v>
       </c>
       <c r="E12" t="n">
-        <v>1720</v>
+        <v>1107</v>
       </c>
       <c r="F12" t="n">
-        <v>7249</v>
+        <v>5882</v>
       </c>
       <c r="G12" t="n">
-        <v>13.56</v>
+        <v>7.74</v>
       </c>
       <c r="H12" t="n">
-        <v>6.98</v>
+        <v>6.78</v>
       </c>
       <c r="I12" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="J12" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1487,31 +1487,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15312</v>
+        <v>8492</v>
       </c>
       <c r="C13" t="n">
-        <v>514</v>
+        <v>312</v>
       </c>
       <c r="D13" t="n">
-        <v>526</v>
+        <v>615</v>
       </c>
       <c r="E13" t="n">
-        <v>876</v>
+        <v>1736</v>
       </c>
       <c r="F13" t="n">
-        <v>13395</v>
+        <v>5829</v>
       </c>
       <c r="G13" t="n">
-        <v>12.74</v>
+        <v>10.67</v>
       </c>
       <c r="H13" t="n">
-        <v>4.51</v>
+        <v>12.15</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1524,25 +1524,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9237</v>
+        <v>10144</v>
       </c>
       <c r="C14" t="n">
-        <v>775</v>
+        <v>456</v>
       </c>
       <c r="D14" t="n">
-        <v>430</v>
+        <v>115</v>
       </c>
       <c r="E14" t="n">
-        <v>809</v>
+        <v>1499</v>
       </c>
       <c r="F14" t="n">
-        <v>7223</v>
+        <v>8074</v>
       </c>
       <c r="G14" t="n">
-        <v>11.5</v>
+        <v>10.89</v>
       </c>
       <c r="H14" t="n">
-        <v>10.45</v>
+        <v>9.59</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1561,31 +1561,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>12618</v>
+        <v>15656</v>
       </c>
       <c r="C15" t="n">
-        <v>1875</v>
+        <v>3847</v>
       </c>
       <c r="D15" t="n">
-        <v>697</v>
+        <v>338</v>
       </c>
       <c r="E15" t="n">
-        <v>411</v>
+        <v>2481</v>
       </c>
       <c r="F15" t="n">
-        <v>9635</v>
+        <v>8990</v>
       </c>
       <c r="G15" t="n">
-        <v>16.63</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="H15" t="n">
-        <v>1.39</v>
+        <v>2.59</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>

--- a/metrics/metricas_analysis.xlsx
+++ b/metrics/metricas_analysis.xlsx
@@ -1080,25 +1080,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3107</v>
+        <v>2901</v>
       </c>
       <c r="C2" t="n">
-        <v>757</v>
+        <v>688</v>
       </c>
       <c r="D2" t="n">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E2" t="n">
-        <v>2232</v>
+        <v>2103</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.19</v>
+        <v>6.15</v>
       </c>
       <c r="H2" t="n">
-        <v>11.84</v>
+        <v>13.68</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1117,25 +1117,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15656</v>
+        <v>15139</v>
       </c>
       <c r="C3" t="n">
-        <v>3847</v>
+        <v>2942</v>
       </c>
       <c r="D3" t="n">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="E3" t="n">
-        <v>2481</v>
+        <v>2327</v>
       </c>
       <c r="F3" t="n">
-        <v>8990</v>
+        <v>9556</v>
       </c>
       <c r="G3" t="n">
-        <v>9.050000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.59</v>
+        <v>2.62</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -1154,25 +1154,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7775</v>
+        <v>7485</v>
       </c>
       <c r="C4" t="n">
-        <v>825</v>
+        <v>655</v>
       </c>
       <c r="D4" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4" t="n">
-        <v>940</v>
+        <v>822</v>
       </c>
       <c r="F4" t="n">
         <v>5984</v>
       </c>
       <c r="G4" t="n">
-        <v>5.01</v>
+        <v>4.73</v>
       </c>
       <c r="H4" t="n">
-        <v>3.15</v>
+        <v>3.07</v>
       </c>
       <c r="I4" t="n">
         <v>5</v>
@@ -1191,10 +1191,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4783</v>
+        <v>4750</v>
       </c>
       <c r="C5" t="n">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="D5" t="n">
         <v>1612</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>20.65</v>
+        <v>20.3</v>
       </c>
       <c r="H5" t="n">
-        <v>22.56</v>
+        <v>22.16</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -1228,25 +1228,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12059</v>
+        <v>12990</v>
       </c>
       <c r="C6" t="n">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="D6" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E6" t="n">
         <v>1726</v>
       </c>
       <c r="F6" t="n">
-        <v>9990</v>
+        <v>10945</v>
       </c>
       <c r="G6" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="H6" t="n">
-        <v>8.710000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -1255,7 +1255,7 @@
         <v>8</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1265,25 +1265,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10700</v>
+        <v>10675</v>
       </c>
       <c r="C7" t="n">
-        <v>1823</v>
+        <v>1970</v>
       </c>
       <c r="D7" t="n">
-        <v>612</v>
+        <v>532</v>
       </c>
       <c r="E7" t="n">
-        <v>634</v>
+        <v>542</v>
       </c>
       <c r="F7" t="n">
         <v>7631</v>
       </c>
       <c r="G7" t="n">
-        <v>13.23</v>
+        <v>12.52</v>
       </c>
       <c r="H7" t="n">
-        <v>6.22</v>
+        <v>5.58</v>
       </c>
       <c r="I7" t="n">
         <v>13</v>
@@ -1302,25 +1302,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13683</v>
+        <v>13357</v>
       </c>
       <c r="C8" t="n">
-        <v>1964</v>
+        <v>1710</v>
       </c>
       <c r="D8" t="n">
-        <v>548</v>
+        <v>524</v>
       </c>
       <c r="E8" t="n">
-        <v>1258</v>
+        <v>1210</v>
       </c>
       <c r="F8" t="n">
         <v>9913</v>
       </c>
       <c r="G8" t="n">
-        <v>9.06</v>
+        <v>9.1</v>
       </c>
       <c r="H8" t="n">
-        <v>16.14</v>
+        <v>16.06</v>
       </c>
       <c r="I8" t="n">
         <v>6</v>
@@ -1339,25 +1339,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17182</v>
+        <v>17035</v>
       </c>
       <c r="C9" t="n">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="D9" t="n">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E9" t="n">
-        <v>767</v>
+        <v>667</v>
       </c>
       <c r="F9" t="n">
         <v>16148</v>
       </c>
       <c r="G9" t="n">
-        <v>15.59</v>
+        <v>15.81</v>
       </c>
       <c r="H9" t="n">
-        <v>7.35</v>
+        <v>7.34</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1376,25 +1376,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3347</v>
+        <v>3135</v>
       </c>
       <c r="C10" t="n">
-        <v>1145</v>
+        <v>1033</v>
       </c>
       <c r="D10" t="n">
-        <v>606</v>
+        <v>572</v>
       </c>
       <c r="E10" t="n">
-        <v>1596</v>
+        <v>1530</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>3.66</v>
+        <v>3.73</v>
       </c>
       <c r="H10" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="I10" t="n">
         <v>7</v>
@@ -1413,13 +1413,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8636</v>
+        <v>8643</v>
       </c>
       <c r="C11" t="n">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="D11" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E11" t="n">
         <v>513</v>
@@ -1428,7 +1428,7 @@
         <v>7497</v>
       </c>
       <c r="G11" t="n">
-        <v>8.869999999999999</v>
+        <v>9.01</v>
       </c>
       <c r="H11" t="n">
         <v>5.19</v>
@@ -1450,25 +1450,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8876</v>
+        <v>8663</v>
       </c>
       <c r="C12" t="n">
-        <v>1439</v>
+        <v>1342</v>
       </c>
       <c r="D12" t="n">
-        <v>448</v>
+        <v>413</v>
       </c>
       <c r="E12" t="n">
-        <v>1107</v>
+        <v>1026</v>
       </c>
       <c r="F12" t="n">
         <v>5882</v>
       </c>
       <c r="G12" t="n">
-        <v>7.74</v>
+        <v>7.52</v>
       </c>
       <c r="H12" t="n">
-        <v>6.78</v>
+        <v>6.58</v>
       </c>
       <c r="I12" t="n">
         <v>31</v>
@@ -1487,25 +1487,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8492</v>
+        <v>8794</v>
       </c>
       <c r="C13" t="n">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="D13" t="n">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E13" t="n">
         <v>1736</v>
       </c>
       <c r="F13" t="n">
-        <v>5829</v>
+        <v>6147</v>
       </c>
       <c r="G13" t="n">
-        <v>10.67</v>
+        <v>10.61</v>
       </c>
       <c r="H13" t="n">
-        <v>12.15</v>
+        <v>11.95</v>
       </c>
       <c r="I13" t="n">
         <v>6</v>
@@ -1524,25 +1524,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10144</v>
+        <v>9968</v>
       </c>
       <c r="C14" t="n">
-        <v>456</v>
+        <v>404</v>
       </c>
       <c r="D14" t="n">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E14" t="n">
-        <v>1499</v>
+        <v>1385</v>
       </c>
       <c r="F14" t="n">
         <v>8074</v>
       </c>
       <c r="G14" t="n">
-        <v>10.89</v>
+        <v>10.98</v>
       </c>
       <c r="H14" t="n">
-        <v>9.59</v>
+        <v>10.5</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1561,25 +1561,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15656</v>
+        <v>15139</v>
       </c>
       <c r="C15" t="n">
-        <v>3847</v>
+        <v>2942</v>
       </c>
       <c r="D15" t="n">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="E15" t="n">
-        <v>2481</v>
+        <v>2327</v>
       </c>
       <c r="F15" t="n">
-        <v>8990</v>
+        <v>9556</v>
       </c>
       <c r="G15" t="n">
-        <v>9.050000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="H15" t="n">
-        <v>2.59</v>
+        <v>2.62</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>

--- a/metrics/metricas_analysis.xlsx
+++ b/metrics/metricas_analysis.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1425</v>
+        <v>1236</v>
       </c>
       <c r="C2" t="n">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="D2" t="n">
-        <v>666</v>
+        <v>529</v>
       </c>
       <c r="E2" t="n">
-        <v>457</v>
+        <v>384</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>15.45</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10390</v>
+        <v>10520</v>
       </c>
       <c r="C7" t="n">
-        <v>1857</v>
+        <v>2029</v>
       </c>
       <c r="D7" t="n">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="E7" t="n">
-        <v>1114</v>
+        <v>1145</v>
       </c>
       <c r="F7" t="n">
-        <v>7133</v>
+        <v>7078</v>
       </c>
       <c r="G7" t="n">
-        <v>26.97</v>
+        <v>27</v>
       </c>
       <c r="H7" t="n">
-        <v>5.34</v>
+        <v>5.35</v>
       </c>
       <c r="I7" t="n">
+        <v>13</v>
+      </c>
+      <c r="J7" t="n">
         <v>10</v>
-      </c>
-      <c r="J7" t="n">
-        <v>8</v>
       </c>
       <c r="K7" t="n">
         <v>7</v>
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20234</v>
+        <v>20248</v>
       </c>
       <c r="C8" t="n">
-        <v>1174</v>
+        <v>1204</v>
       </c>
       <c r="D8" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E8" t="n">
         <v>2507</v>
@@ -729,7 +729,7 @@
         <v>2.28</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
         <v>9</v>
@@ -760,10 +760,10 @@
         <v>14446</v>
       </c>
       <c r="G9" t="n">
-        <v>17.53</v>
+        <v>18.17</v>
       </c>
       <c r="H9" t="n">
-        <v>14.42</v>
+        <v>14.9</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6210</v>
+        <v>6422</v>
       </c>
       <c r="C10" t="n">
-        <v>3248</v>
+        <v>3460</v>
       </c>
       <c r="D10" t="n">
         <v>403</v>
@@ -797,10 +797,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>10.09</v>
+        <v>10.34</v>
       </c>
       <c r="H10" t="n">
-        <v>4.89</v>
+        <v>4.44</v>
       </c>
       <c r="I10" t="n">
         <v>2</v>
@@ -856,34 +856,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10941</v>
+        <v>11030</v>
       </c>
       <c r="C12" t="n">
-        <v>1571</v>
+        <v>1675</v>
       </c>
       <c r="D12" t="n">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="E12" t="n">
-        <v>1641</v>
+        <v>1648</v>
       </c>
       <c r="F12" t="n">
-        <v>7286</v>
+        <v>7273</v>
       </c>
       <c r="G12" t="n">
-        <v>13.54</v>
+        <v>13.61</v>
       </c>
       <c r="H12" t="n">
-        <v>6.99</v>
+        <v>6.88</v>
       </c>
       <c r="I12" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J12" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -920,7 +920,7 @@
         <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -930,25 +930,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9261</v>
+        <v>9167</v>
       </c>
       <c r="C14" t="n">
-        <v>765</v>
+        <v>775</v>
       </c>
       <c r="D14" t="n">
-        <v>464</v>
+        <v>396</v>
       </c>
       <c r="E14" t="n">
-        <v>809</v>
+        <v>772</v>
       </c>
       <c r="F14" t="n">
         <v>7223</v>
       </c>
       <c r="G14" t="n">
-        <v>11.5</v>
+        <v>11.82</v>
       </c>
       <c r="H14" t="n">
-        <v>10.45</v>
+        <v>10.69</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1080,25 +1080,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2901</v>
+        <v>19716</v>
       </c>
       <c r="C2" t="n">
-        <v>688</v>
+        <v>568</v>
       </c>
       <c r="D2" t="n">
-        <v>110</v>
+        <v>425</v>
       </c>
       <c r="E2" t="n">
-        <v>2103</v>
+        <v>1111</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>17612</v>
       </c>
       <c r="G2" t="n">
-        <v>6.15</v>
+        <v>13.48</v>
       </c>
       <c r="H2" t="n">
-        <v>13.68</v>
+        <v>15.68</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1117,25 +1117,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15139</v>
+        <v>13577</v>
       </c>
       <c r="C3" t="n">
-        <v>2942</v>
+        <v>2732</v>
       </c>
       <c r="D3" t="n">
-        <v>314</v>
+        <v>636</v>
       </c>
       <c r="E3" t="n">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="F3" t="n">
-        <v>9556</v>
+        <v>7883</v>
       </c>
       <c r="G3" t="n">
-        <v>9.1</v>
+        <v>8.02</v>
       </c>
       <c r="H3" t="n">
-        <v>2.62</v>
+        <v>6.11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>5</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1154,31 +1154,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7485</v>
+        <v>7823</v>
       </c>
       <c r="C4" t="n">
-        <v>655</v>
+        <v>542</v>
       </c>
       <c r="D4" t="n">
-        <v>24</v>
+        <v>321</v>
       </c>
       <c r="E4" t="n">
-        <v>822</v>
+        <v>976</v>
       </c>
       <c r="F4" t="n">
         <v>5984</v>
       </c>
       <c r="G4" t="n">
-        <v>4.73</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>3.07</v>
+        <v>6.77</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
         <v>6</v>
@@ -1191,25 +1191,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4750</v>
+        <v>25013</v>
       </c>
       <c r="C5" t="n">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="D5" t="n">
-        <v>1612</v>
+        <v>1342</v>
       </c>
       <c r="E5" t="n">
-        <v>2970</v>
+        <v>2814</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>20670</v>
       </c>
       <c r="G5" t="n">
-        <v>20.3</v>
+        <v>20.68</v>
       </c>
       <c r="H5" t="n">
-        <v>22.16</v>
+        <v>21.73</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1228,25 +1228,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12990</v>
+        <v>13541</v>
       </c>
       <c r="C6" t="n">
-        <v>181</v>
+        <v>322</v>
       </c>
       <c r="D6" t="n">
-        <v>138</v>
+        <v>523</v>
       </c>
       <c r="E6" t="n">
-        <v>1726</v>
+        <v>1751</v>
       </c>
       <c r="F6" t="n">
         <v>10945</v>
       </c>
       <c r="G6" t="n">
-        <v>2.52</v>
+        <v>3.97</v>
       </c>
       <c r="H6" t="n">
-        <v>8.5</v>
+        <v>5.35</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -1255,7 +1255,7 @@
         <v>8</v>
       </c>
       <c r="K6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1265,34 +1265,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10675</v>
+        <v>10149</v>
       </c>
       <c r="C7" t="n">
-        <v>1970</v>
+        <v>2003</v>
       </c>
       <c r="D7" t="n">
-        <v>532</v>
+        <v>726</v>
       </c>
       <c r="E7" t="n">
-        <v>542</v>
+        <v>1146</v>
       </c>
       <c r="F7" t="n">
-        <v>7631</v>
+        <v>6274</v>
       </c>
       <c r="G7" t="n">
-        <v>12.52</v>
+        <v>24.02</v>
       </c>
       <c r="H7" t="n">
-        <v>5.58</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="I7" t="n">
+        <v>18</v>
+      </c>
+      <c r="J7" t="n">
         <v>13</v>
       </c>
-      <c r="J7" t="n">
-        <v>11</v>
-      </c>
       <c r="K7" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -1302,28 +1302,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13357</v>
+        <v>13963</v>
       </c>
       <c r="C8" t="n">
-        <v>1710</v>
+        <v>1852</v>
       </c>
       <c r="D8" t="n">
-        <v>524</v>
+        <v>825</v>
       </c>
       <c r="E8" t="n">
-        <v>1210</v>
+        <v>1293</v>
       </c>
       <c r="F8" t="n">
-        <v>9913</v>
+        <v>9993</v>
       </c>
       <c r="G8" t="n">
-        <v>9.1</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>16.06</v>
+        <v>13.37</v>
       </c>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
         <v>9</v>
@@ -1339,25 +1339,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17035</v>
+        <v>16423</v>
       </c>
       <c r="C9" t="n">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D9" t="n">
-        <v>99</v>
+        <v>313</v>
       </c>
       <c r="E9" t="n">
-        <v>667</v>
+        <v>622</v>
       </c>
       <c r="F9" t="n">
-        <v>16148</v>
+        <v>15361</v>
       </c>
       <c r="G9" t="n">
-        <v>15.81</v>
+        <v>18.86</v>
       </c>
       <c r="H9" t="n">
-        <v>7.34</v>
+        <v>5.6</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1376,34 +1376,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3135</v>
+        <v>2653</v>
       </c>
       <c r="C10" t="n">
-        <v>1033</v>
+        <v>894</v>
       </c>
       <c r="D10" t="n">
-        <v>572</v>
+        <v>370</v>
       </c>
       <c r="E10" t="n">
-        <v>1530</v>
+        <v>1389</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>3.73</v>
+        <v>4.72</v>
       </c>
       <c r="H10" t="n">
-        <v>1.61</v>
+        <v>3.37</v>
       </c>
       <c r="I10" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1413,25 +1413,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8643</v>
+        <v>15789</v>
       </c>
       <c r="C11" t="n">
-        <v>543</v>
+        <v>563</v>
       </c>
       <c r="D11" t="n">
-        <v>90</v>
+        <v>247</v>
       </c>
       <c r="E11" t="n">
-        <v>513</v>
+        <v>696</v>
       </c>
       <c r="F11" t="n">
-        <v>7497</v>
+        <v>14283</v>
       </c>
       <c r="G11" t="n">
-        <v>9.01</v>
+        <v>13.42</v>
       </c>
       <c r="H11" t="n">
-        <v>5.19</v>
+        <v>12.94</v>
       </c>
       <c r="I11" t="n">
         <v>5</v>
@@ -1440,7 +1440,7 @@
         <v>9</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1450,34 +1450,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8663</v>
+        <v>8647</v>
       </c>
       <c r="C12" t="n">
-        <v>1342</v>
+        <v>1322</v>
       </c>
       <c r="D12" t="n">
-        <v>413</v>
+        <v>560</v>
       </c>
       <c r="E12" t="n">
-        <v>1026</v>
+        <v>1201</v>
       </c>
       <c r="F12" t="n">
-        <v>5882</v>
+        <v>5562</v>
       </c>
       <c r="G12" t="n">
-        <v>7.52</v>
+        <v>11.74</v>
       </c>
       <c r="H12" t="n">
-        <v>6.58</v>
+        <v>8.1</v>
       </c>
       <c r="I12" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J12" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -1487,25 +1487,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8794</v>
+        <v>18114</v>
       </c>
       <c r="C13" t="n">
-        <v>297</v>
+        <v>357</v>
       </c>
       <c r="D13" t="n">
-        <v>613</v>
+        <v>704</v>
       </c>
       <c r="E13" t="n">
-        <v>1736</v>
+        <v>1753</v>
       </c>
       <c r="F13" t="n">
-        <v>6147</v>
+        <v>15299</v>
       </c>
       <c r="G13" t="n">
-        <v>10.61</v>
+        <v>12.69</v>
       </c>
       <c r="H13" t="n">
-        <v>11.95</v>
+        <v>13.34</v>
       </c>
       <c r="I13" t="n">
         <v>6</v>
@@ -1514,7 +1514,7 @@
         <v>17</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1524,25 +1524,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9968</v>
+        <v>18069</v>
       </c>
       <c r="C14" t="n">
-        <v>404</v>
+        <v>347</v>
       </c>
       <c r="D14" t="n">
-        <v>104</v>
+        <v>369</v>
       </c>
       <c r="E14" t="n">
-        <v>1385</v>
+        <v>866</v>
       </c>
       <c r="F14" t="n">
-        <v>8074</v>
+        <v>16486</v>
       </c>
       <c r="G14" t="n">
-        <v>10.98</v>
+        <v>16.17</v>
       </c>
       <c r="H14" t="n">
-        <v>10.5</v>
+        <v>10.64</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1561,25 +1561,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15139</v>
+        <v>13577</v>
       </c>
       <c r="C15" t="n">
-        <v>2942</v>
+        <v>2732</v>
       </c>
       <c r="D15" t="n">
-        <v>314</v>
+        <v>636</v>
       </c>
       <c r="E15" t="n">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="F15" t="n">
-        <v>9556</v>
+        <v>7883</v>
       </c>
       <c r="G15" t="n">
-        <v>9.1</v>
+        <v>8.02</v>
       </c>
       <c r="H15" t="n">
-        <v>2.62</v>
+        <v>6.1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>5</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/metrics/metricas_analysis.xlsx
+++ b/metrics/metricas_analysis.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enero" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Febrero" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Febrero" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Marzo" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,25 +486,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1236</v>
+        <v>20207</v>
       </c>
       <c r="C2" t="n">
-        <v>323</v>
+        <v>748</v>
       </c>
       <c r="D2" t="n">
-        <v>529</v>
+        <v>470</v>
       </c>
       <c r="E2" t="n">
-        <v>384</v>
+        <v>1377</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>17612</v>
       </c>
       <c r="G2" t="n">
-        <v>5.47</v>
+        <v>16.28</v>
       </c>
       <c r="H2" t="n">
-        <v>6.5</v>
+        <v>18.05</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -513,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -523,34 +523,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12618</v>
+        <v>14599</v>
       </c>
       <c r="C3" t="n">
-        <v>1875</v>
+        <v>2857</v>
       </c>
       <c r="D3" t="n">
-        <v>697</v>
+        <v>636</v>
       </c>
       <c r="E3" t="n">
-        <v>411</v>
+        <v>3186</v>
       </c>
       <c r="F3" t="n">
-        <v>9635</v>
+        <v>7920</v>
       </c>
       <c r="G3" t="n">
-        <v>20.27</v>
+        <v>7.69</v>
       </c>
       <c r="H3" t="n">
-        <v>1.1</v>
+        <v>5.74</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -560,34 +560,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6932</v>
+        <v>7823</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>542</v>
       </c>
       <c r="D4" t="n">
-        <v>565</v>
+        <v>321</v>
       </c>
       <c r="E4" t="n">
-        <v>384</v>
+        <v>976</v>
       </c>
       <c r="F4" t="n">
-        <v>5975</v>
+        <v>5984</v>
       </c>
       <c r="G4" t="n">
-        <v>2.62</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>15.45</v>
+        <v>6.77</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -597,25 +597,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20256</v>
+        <v>25013</v>
       </c>
       <c r="C5" t="n">
-        <v>890</v>
+        <v>187</v>
       </c>
       <c r="D5" t="n">
-        <v>922</v>
+        <v>1342</v>
       </c>
       <c r="E5" t="n">
-        <v>1639</v>
+        <v>2814</v>
       </c>
       <c r="F5" t="n">
-        <v>16805</v>
+        <v>20670</v>
       </c>
       <c r="G5" t="n">
-        <v>8.58</v>
+        <v>20.64</v>
       </c>
       <c r="H5" t="n">
-        <v>3.36</v>
+        <v>21.9</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -634,34 +634,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10843</v>
+        <v>13541</v>
       </c>
       <c r="C6" t="n">
-        <v>349</v>
+        <v>322</v>
       </c>
       <c r="D6" t="n">
-        <v>359</v>
+        <v>523</v>
       </c>
       <c r="E6" t="n">
-        <v>777</v>
+        <v>1751</v>
       </c>
       <c r="F6" t="n">
-        <v>9358</v>
+        <v>10945</v>
       </c>
       <c r="G6" t="n">
-        <v>11.7</v>
+        <v>3.97</v>
       </c>
       <c r="H6" t="n">
-        <v>6.23</v>
+        <v>5.35</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -671,34 +671,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10520</v>
+        <v>10824</v>
       </c>
       <c r="C7" t="n">
-        <v>2029</v>
+        <v>1947</v>
       </c>
       <c r="D7" t="n">
-        <v>268</v>
+        <v>681</v>
       </c>
       <c r="E7" t="n">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="F7" t="n">
-        <v>7078</v>
+        <v>7050</v>
       </c>
       <c r="G7" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H7" t="n">
-        <v>5.35</v>
+        <v>9.25</v>
       </c>
       <c r="I7" t="n">
+        <v>18</v>
+      </c>
+      <c r="J7" t="n">
         <v>13</v>
       </c>
-      <c r="J7" t="n">
-        <v>10</v>
-      </c>
       <c r="K7" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -708,34 +708,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20248</v>
+        <v>13533</v>
       </c>
       <c r="C8" t="n">
-        <v>1204</v>
+        <v>1459</v>
       </c>
       <c r="D8" t="n">
-        <v>498</v>
+        <v>878</v>
       </c>
       <c r="E8" t="n">
-        <v>2507</v>
+        <v>1203</v>
       </c>
       <c r="F8" t="n">
-        <v>16039</v>
+        <v>9993</v>
       </c>
       <c r="G8" t="n">
-        <v>14.49</v>
+        <v>10.2</v>
       </c>
       <c r="H8" t="n">
-        <v>2.28</v>
+        <v>13.66</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
         <v>9</v>
       </c>
       <c r="K8" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -745,25 +745,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17098</v>
+        <v>16415</v>
       </c>
       <c r="C9" t="n">
-        <v>1228</v>
+        <v>136</v>
       </c>
       <c r="D9" t="n">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="E9" t="n">
-        <v>1161</v>
+        <v>566</v>
       </c>
       <c r="F9" t="n">
-        <v>14446</v>
+        <v>15433</v>
       </c>
       <c r="G9" t="n">
-        <v>18.17</v>
+        <v>18.86</v>
       </c>
       <c r="H9" t="n">
-        <v>14.9</v>
+        <v>5.6</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -782,34 +782,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6422</v>
+        <v>2645</v>
       </c>
       <c r="C10" t="n">
-        <v>3460</v>
+        <v>886</v>
       </c>
       <c r="D10" t="n">
-        <v>403</v>
+        <v>370</v>
       </c>
       <c r="E10" t="n">
-        <v>2559</v>
+        <v>1389</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>10.34</v>
+        <v>4.69</v>
       </c>
       <c r="H10" t="n">
-        <v>4.44</v>
+        <v>3.36</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -819,34 +819,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14837</v>
+        <v>15789</v>
       </c>
       <c r="C11" t="n">
-        <v>303</v>
+        <v>563</v>
       </c>
       <c r="D11" t="n">
-        <v>299</v>
+        <v>247</v>
       </c>
       <c r="E11" t="n">
-        <v>213</v>
+        <v>696</v>
       </c>
       <c r="F11" t="n">
-        <v>14022</v>
+        <v>14283</v>
       </c>
       <c r="G11" t="n">
-        <v>17.82</v>
+        <v>8.43</v>
       </c>
       <c r="H11" t="n">
-        <v>3.97</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -856,34 +856,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11030</v>
+        <v>8706</v>
       </c>
       <c r="C12" t="n">
-        <v>1675</v>
+        <v>1208</v>
       </c>
       <c r="D12" t="n">
-        <v>433</v>
+        <v>562</v>
       </c>
       <c r="E12" t="n">
-        <v>1648</v>
+        <v>1178</v>
       </c>
       <c r="F12" t="n">
-        <v>7273</v>
+        <v>5756</v>
       </c>
       <c r="G12" t="n">
-        <v>13.61</v>
+        <v>11.81</v>
       </c>
       <c r="H12" t="n">
-        <v>6.88</v>
+        <v>8.26</v>
       </c>
       <c r="I12" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="J12" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K12" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13">
@@ -893,34 +893,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15312</v>
+        <v>18114</v>
       </c>
       <c r="C13" t="n">
-        <v>514</v>
+        <v>357</v>
       </c>
       <c r="D13" t="n">
-        <v>526</v>
+        <v>704</v>
       </c>
       <c r="E13" t="n">
-        <v>876</v>
+        <v>1753</v>
       </c>
       <c r="F13" t="n">
-        <v>13395</v>
+        <v>15299</v>
       </c>
       <c r="G13" t="n">
-        <v>12.7</v>
+        <v>11.01</v>
       </c>
       <c r="H13" t="n">
-        <v>4.51</v>
+        <v>11.8</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="K13" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -930,25 +930,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9167</v>
+        <v>18311</v>
       </c>
       <c r="C14" t="n">
-        <v>775</v>
+        <v>442</v>
       </c>
       <c r="D14" t="n">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="E14" t="n">
-        <v>772</v>
+        <v>971</v>
       </c>
       <c r="F14" t="n">
-        <v>7223</v>
+        <v>16522</v>
       </c>
       <c r="G14" t="n">
-        <v>11.82</v>
+        <v>17.57</v>
       </c>
       <c r="H14" t="n">
-        <v>10.69</v>
+        <v>11.83</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -967,34 +967,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>12618</v>
+        <v>14599</v>
       </c>
       <c r="C15" t="n">
-        <v>1875</v>
+        <v>2857</v>
       </c>
       <c r="D15" t="n">
-        <v>697</v>
+        <v>636</v>
       </c>
       <c r="E15" t="n">
-        <v>411</v>
+        <v>3186</v>
       </c>
       <c r="F15" t="n">
-        <v>9635</v>
+        <v>7920</v>
       </c>
       <c r="G15" t="n">
-        <v>20.27</v>
+        <v>7.69</v>
       </c>
       <c r="H15" t="n">
-        <v>1.1</v>
+        <v>5.74</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1080,25 +1080,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19716</v>
+        <v>15356</v>
       </c>
       <c r="C2" t="n">
-        <v>568</v>
+        <v>2398</v>
       </c>
       <c r="D2" t="n">
-        <v>425</v>
+        <v>669</v>
       </c>
       <c r="E2" t="n">
-        <v>1111</v>
+        <v>894</v>
       </c>
       <c r="F2" t="n">
-        <v>17612</v>
+        <v>11395</v>
       </c>
       <c r="G2" t="n">
-        <v>13.48</v>
+        <v>27.85</v>
       </c>
       <c r="H2" t="n">
-        <v>15.68</v>
+        <v>9.67</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1117,34 +1117,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13577</v>
+        <v>17551</v>
       </c>
       <c r="C3" t="n">
-        <v>2732</v>
+        <v>3395</v>
       </c>
       <c r="D3" t="n">
-        <v>636</v>
+        <v>1973</v>
       </c>
       <c r="E3" t="n">
-        <v>2326</v>
+        <v>1442</v>
       </c>
       <c r="F3" t="n">
-        <v>7883</v>
+        <v>10741</v>
       </c>
       <c r="G3" t="n">
-        <v>8.02</v>
+        <v>3.52</v>
       </c>
       <c r="H3" t="n">
-        <v>6.11</v>
+        <v>24.93</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1154,34 +1154,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7823</v>
+        <v>13204</v>
       </c>
       <c r="C4" t="n">
-        <v>542</v>
+        <v>870</v>
       </c>
       <c r="D4" t="n">
-        <v>321</v>
+        <v>193</v>
       </c>
       <c r="E4" t="n">
-        <v>976</v>
+        <v>369</v>
       </c>
       <c r="F4" t="n">
-        <v>5984</v>
+        <v>11772</v>
       </c>
       <c r="G4" t="n">
-        <v>8.359999999999999</v>
+        <v>6.42</v>
       </c>
       <c r="H4" t="n">
-        <v>6.77</v>
+        <v>4.28</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
         <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -1191,28 +1191,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>25013</v>
+        <v>19823</v>
       </c>
       <c r="C5" t="n">
-        <v>187</v>
+        <v>1820</v>
       </c>
       <c r="D5" t="n">
-        <v>1342</v>
+        <v>917</v>
       </c>
       <c r="E5" t="n">
-        <v>2814</v>
+        <v>2963</v>
       </c>
       <c r="F5" t="n">
-        <v>20670</v>
+        <v>14123</v>
       </c>
       <c r="G5" t="n">
-        <v>20.68</v>
+        <v>3.95</v>
       </c>
       <c r="H5" t="n">
-        <v>21.73</v>
+        <v>9.57</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1228,34 +1228,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13541</v>
+        <v>11574</v>
       </c>
       <c r="C6" t="n">
-        <v>322</v>
+        <v>418</v>
       </c>
       <c r="D6" t="n">
-        <v>523</v>
+        <v>614</v>
       </c>
       <c r="E6" t="n">
-        <v>1751</v>
+        <v>3499</v>
       </c>
       <c r="F6" t="n">
-        <v>10945</v>
+        <v>7043</v>
       </c>
       <c r="G6" t="n">
-        <v>3.97</v>
+        <v>9.15</v>
       </c>
       <c r="H6" t="n">
-        <v>5.35</v>
+        <v>3.92</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1265,34 +1265,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10149</v>
+        <v>9131</v>
       </c>
       <c r="C7" t="n">
-        <v>2003</v>
+        <v>3026</v>
       </c>
       <c r="D7" t="n">
-        <v>726</v>
+        <v>672</v>
       </c>
       <c r="E7" t="n">
-        <v>1146</v>
+        <v>1370</v>
       </c>
       <c r="F7" t="n">
-        <v>6274</v>
+        <v>4063</v>
       </c>
       <c r="G7" t="n">
-        <v>24.02</v>
+        <v>3.18</v>
       </c>
       <c r="H7" t="n">
-        <v>8.869999999999999</v>
+        <v>1.84</v>
       </c>
       <c r="I7" t="n">
+        <v>19</v>
+      </c>
+      <c r="J7" t="n">
         <v>18</v>
       </c>
-      <c r="J7" t="n">
-        <v>13</v>
-      </c>
       <c r="K7" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1302,34 +1302,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13963</v>
+        <v>19179</v>
       </c>
       <c r="C8" t="n">
-        <v>1852</v>
+        <v>467</v>
       </c>
       <c r="D8" t="n">
-        <v>825</v>
+        <v>1579</v>
       </c>
       <c r="E8" t="n">
-        <v>1293</v>
+        <v>2255</v>
       </c>
       <c r="F8" t="n">
-        <v>9993</v>
+        <v>14878</v>
       </c>
       <c r="G8" t="n">
-        <v>9.880000000000001</v>
+        <v>16.52</v>
       </c>
       <c r="H8" t="n">
-        <v>13.37</v>
+        <v>6.99</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
         <v>9</v>
       </c>
       <c r="K8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1339,25 +1339,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16423</v>
+        <v>19363</v>
       </c>
       <c r="C9" t="n">
-        <v>127</v>
+        <v>718</v>
       </c>
       <c r="D9" t="n">
-        <v>313</v>
+        <v>725</v>
       </c>
       <c r="E9" t="n">
-        <v>622</v>
+        <v>259</v>
       </c>
       <c r="F9" t="n">
-        <v>15361</v>
+        <v>17661</v>
       </c>
       <c r="G9" t="n">
-        <v>18.86</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>5.6</v>
+        <v>5.67</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1376,34 +1376,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2653</v>
+        <v>19287</v>
       </c>
       <c r="C10" t="n">
-        <v>894</v>
+        <v>1064</v>
       </c>
       <c r="D10" t="n">
-        <v>370</v>
+        <v>856</v>
       </c>
       <c r="E10" t="n">
-        <v>1389</v>
+        <v>596</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>16771</v>
       </c>
       <c r="G10" t="n">
-        <v>4.72</v>
+        <v>7.15</v>
       </c>
       <c r="H10" t="n">
-        <v>3.37</v>
+        <v>12.95</v>
       </c>
       <c r="I10" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1413,34 +1413,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15789</v>
+        <v>6203</v>
       </c>
       <c r="C11" t="n">
-        <v>563</v>
+        <v>2297</v>
       </c>
       <c r="D11" t="n">
-        <v>247</v>
+        <v>446</v>
       </c>
       <c r="E11" t="n">
-        <v>696</v>
+        <v>564</v>
       </c>
       <c r="F11" t="n">
-        <v>14283</v>
+        <v>2896</v>
       </c>
       <c r="G11" t="n">
-        <v>13.42</v>
+        <v>10.82</v>
       </c>
       <c r="H11" t="n">
-        <v>12.94</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J11" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1450,34 +1450,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8647</v>
+        <v>15200</v>
       </c>
       <c r="C12" t="n">
-        <v>1322</v>
+        <v>1356</v>
       </c>
       <c r="D12" t="n">
-        <v>560</v>
+        <v>825</v>
       </c>
       <c r="E12" t="n">
-        <v>1201</v>
+        <v>1147</v>
       </c>
       <c r="F12" t="n">
-        <v>5562</v>
+        <v>11871</v>
       </c>
       <c r="G12" t="n">
-        <v>11.74</v>
+        <v>8.32</v>
       </c>
       <c r="H12" t="n">
-        <v>8.1</v>
+        <v>6.52</v>
       </c>
       <c r="I12" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J12" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K12" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -1487,34 +1487,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>18114</v>
+        <v>12533</v>
       </c>
       <c r="C13" t="n">
-        <v>357</v>
+        <v>1511</v>
       </c>
       <c r="D13" t="n">
-        <v>704</v>
+        <v>659</v>
       </c>
       <c r="E13" t="n">
-        <v>1753</v>
+        <v>2342</v>
       </c>
       <c r="F13" t="n">
-        <v>15299</v>
+        <v>8020</v>
       </c>
       <c r="G13" t="n">
-        <v>12.69</v>
+        <v>7.97</v>
       </c>
       <c r="H13" t="n">
-        <v>13.34</v>
+        <v>7.62</v>
       </c>
       <c r="I13" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J13" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="K13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -1524,25 +1524,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18069</v>
+        <v>17359</v>
       </c>
       <c r="C14" t="n">
-        <v>347</v>
+        <v>1558</v>
       </c>
       <c r="D14" t="n">
-        <v>369</v>
+        <v>697</v>
       </c>
       <c r="E14" t="n">
-        <v>866</v>
+        <v>576</v>
       </c>
       <c r="F14" t="n">
-        <v>16486</v>
+        <v>14528</v>
       </c>
       <c r="G14" t="n">
-        <v>16.17</v>
+        <v>18.44</v>
       </c>
       <c r="H14" t="n">
-        <v>10.64</v>
+        <v>7.66</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1561,34 +1561,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>13577</v>
+        <v>17551</v>
       </c>
       <c r="C15" t="n">
-        <v>2732</v>
+        <v>3395</v>
       </c>
       <c r="D15" t="n">
-        <v>636</v>
+        <v>1973</v>
       </c>
       <c r="E15" t="n">
-        <v>2326</v>
+        <v>1442</v>
       </c>
       <c r="F15" t="n">
-        <v>7883</v>
+        <v>10741</v>
       </c>
       <c r="G15" t="n">
-        <v>8.02</v>
+        <v>3.52</v>
       </c>
       <c r="H15" t="n">
-        <v>6.1</v>
+        <v>24.93</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/metrics/metricas_analysis.xlsx
+++ b/metrics/metricas_analysis.xlsx
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14599</v>
+        <v>14500</v>
       </c>
       <c r="C3" t="n">
-        <v>2857</v>
+        <v>2732</v>
       </c>
       <c r="D3" t="n">
-        <v>636</v>
+        <v>662</v>
       </c>
       <c r="E3" t="n">
         <v>3186</v>
@@ -560,22 +560,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7823</v>
+        <v>7642</v>
       </c>
       <c r="C4" t="n">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="D4" t="n">
         <v>321</v>
       </c>
       <c r="E4" t="n">
-        <v>976</v>
+        <v>807</v>
       </c>
       <c r="F4" t="n">
         <v>5984</v>
       </c>
       <c r="G4" t="n">
-        <v>8.359999999999999</v>
+        <v>8.42</v>
       </c>
       <c r="H4" t="n">
         <v>6.77</v>
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2645</v>
+        <v>2636</v>
       </c>
       <c r="C10" t="n">
-        <v>886</v>
+        <v>877</v>
       </c>
       <c r="D10" t="n">
         <v>370</v>
@@ -856,22 +856,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8706</v>
+        <v>8658</v>
       </c>
       <c r="C12" t="n">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="D12" t="n">
         <v>562</v>
       </c>
       <c r="E12" t="n">
-        <v>1178</v>
+        <v>1136</v>
       </c>
       <c r="F12" t="n">
         <v>5756</v>
       </c>
       <c r="G12" t="n">
-        <v>11.81</v>
+        <v>11.83</v>
       </c>
       <c r="H12" t="n">
         <v>8.26</v>
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>14599</v>
+        <v>14500</v>
       </c>
       <c r="C15" t="n">
-        <v>2857</v>
+        <v>2732</v>
       </c>
       <c r="D15" t="n">
-        <v>636</v>
+        <v>662</v>
       </c>
       <c r="E15" t="n">
         <v>3186</v>
@@ -1080,16 +1080,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15356</v>
+        <v>14756</v>
       </c>
       <c r="C2" t="n">
-        <v>2398</v>
+        <v>1847</v>
       </c>
       <c r="D2" t="n">
-        <v>669</v>
+        <v>683</v>
       </c>
       <c r="E2" t="n">
-        <v>894</v>
+        <v>831</v>
       </c>
       <c r="F2" t="n">
         <v>11395</v>
@@ -1098,7 +1098,7 @@
         <v>27.85</v>
       </c>
       <c r="H2" t="n">
-        <v>9.67</v>
+        <v>9.68</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17551</v>
+        <v>17208</v>
       </c>
       <c r="C3" t="n">
-        <v>3395</v>
+        <v>3052</v>
       </c>
       <c r="D3" t="n">
         <v>1973</v>
@@ -1132,10 +1132,10 @@
         <v>10741</v>
       </c>
       <c r="G3" t="n">
-        <v>3.52</v>
+        <v>16.95</v>
       </c>
       <c r="H3" t="n">
-        <v>24.93</v>
+        <v>17.79</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13204</v>
+        <v>12830</v>
       </c>
       <c r="C4" t="n">
         <v>870</v>
@@ -1166,13 +1166,13 @@
         <v>369</v>
       </c>
       <c r="F4" t="n">
-        <v>11772</v>
+        <v>11398</v>
       </c>
       <c r="G4" t="n">
-        <v>6.42</v>
+        <v>6.48</v>
       </c>
       <c r="H4" t="n">
-        <v>4.28</v>
+        <v>6.82</v>
       </c>
       <c r="I4" t="n">
         <v>5</v>
@@ -1206,10 +1206,10 @@
         <v>14123</v>
       </c>
       <c r="G5" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="H5" t="n">
-        <v>9.57</v>
+        <v>9.6</v>
       </c>
       <c r="I5" t="n">
         <v>2</v>
@@ -1265,13 +1265,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9131</v>
+        <v>9117</v>
       </c>
       <c r="C7" t="n">
-        <v>3026</v>
+        <v>3016</v>
       </c>
       <c r="D7" t="n">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E7" t="n">
         <v>1370</v>
@@ -1280,7 +1280,7 @@
         <v>4063</v>
       </c>
       <c r="G7" t="n">
-        <v>3.18</v>
+        <v>2.41</v>
       </c>
       <c r="H7" t="n">
         <v>1.84</v>
@@ -1302,13 +1302,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19179</v>
+        <v>19165</v>
       </c>
       <c r="C8" t="n">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="D8" t="n">
-        <v>1579</v>
+        <v>1558</v>
       </c>
       <c r="E8" t="n">
         <v>2255</v>
@@ -1317,10 +1317,10 @@
         <v>14878</v>
       </c>
       <c r="G8" t="n">
-        <v>16.52</v>
+        <v>16.93</v>
       </c>
       <c r="H8" t="n">
-        <v>6.99</v>
+        <v>6.89</v>
       </c>
       <c r="I8" t="n">
         <v>7</v>
@@ -1354,10 +1354,10 @@
         <v>17661</v>
       </c>
       <c r="G9" t="n">
-        <v>9.029999999999999</v>
+        <v>7.98</v>
       </c>
       <c r="H9" t="n">
-        <v>5.67</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1376,10 +1376,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19287</v>
+        <v>19275</v>
       </c>
       <c r="C10" t="n">
-        <v>1064</v>
+        <v>1052</v>
       </c>
       <c r="D10" t="n">
         <v>856</v>
@@ -1391,10 +1391,10 @@
         <v>16771</v>
       </c>
       <c r="G10" t="n">
-        <v>7.15</v>
+        <v>7.13</v>
       </c>
       <c r="H10" t="n">
-        <v>12.95</v>
+        <v>13.08</v>
       </c>
       <c r="I10" t="n">
         <v>21</v>
@@ -1413,10 +1413,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6203</v>
+        <v>6240</v>
       </c>
       <c r="C11" t="n">
-        <v>2297</v>
+        <v>2334</v>
       </c>
       <c r="D11" t="n">
         <v>446</v>
@@ -1428,10 +1428,10 @@
         <v>2896</v>
       </c>
       <c r="G11" t="n">
-        <v>10.82</v>
+        <v>8.69</v>
       </c>
       <c r="H11" t="n">
-        <v>9.380000000000001</v>
+        <v>7.58</v>
       </c>
       <c r="I11" t="n">
         <v>6</v>
@@ -1450,25 +1450,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>15200</v>
+        <v>15096</v>
       </c>
       <c r="C12" t="n">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="D12" t="n">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="E12" t="n">
         <v>1147</v>
       </c>
       <c r="F12" t="n">
-        <v>11871</v>
+        <v>11777</v>
       </c>
       <c r="G12" t="n">
-        <v>8.32</v>
+        <v>8.24</v>
       </c>
       <c r="H12" t="n">
-        <v>6.52</v>
+        <v>7.16</v>
       </c>
       <c r="I12" t="n">
         <v>52</v>
@@ -1487,10 +1487,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12533</v>
+        <v>12545</v>
       </c>
       <c r="C13" t="n">
-        <v>1511</v>
+        <v>1524</v>
       </c>
       <c r="D13" t="n">
         <v>659</v>
@@ -1502,10 +1502,10 @@
         <v>8020</v>
       </c>
       <c r="G13" t="n">
-        <v>7.97</v>
+        <v>7.27</v>
       </c>
       <c r="H13" t="n">
-        <v>7.62</v>
+        <v>7.02</v>
       </c>
       <c r="I13" t="n">
         <v>11</v>
@@ -1524,25 +1524,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>17359</v>
+        <v>17059</v>
       </c>
       <c r="C14" t="n">
-        <v>1558</v>
+        <v>1282</v>
       </c>
       <c r="D14" t="n">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="E14" t="n">
-        <v>576</v>
+        <v>545</v>
       </c>
       <c r="F14" t="n">
         <v>14528</v>
       </c>
       <c r="G14" t="n">
-        <v>18.44</v>
+        <v>17.92</v>
       </c>
       <c r="H14" t="n">
-        <v>7.66</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1561,10 +1561,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>17551</v>
+        <v>17208</v>
       </c>
       <c r="C15" t="n">
-        <v>3395</v>
+        <v>3052</v>
       </c>
       <c r="D15" t="n">
         <v>1973</v>
@@ -1576,10 +1576,10 @@
         <v>10741</v>
       </c>
       <c r="G15" t="n">
-        <v>3.52</v>
+        <v>16.95</v>
       </c>
       <c r="H15" t="n">
-        <v>24.93</v>
+        <v>17.79</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
